--- a/arch/SIQR.xlsx
+++ b/arch/SIQR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,13 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.99</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>0.01</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -67,13 +67,16 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>0.35</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>0.15</t>
   </si>
   <si>
-    <t>0.05</t>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
   <si>
     <t>Метод решения:</t>
@@ -204,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$C$4</c:f>
+              <c:f>'Решение'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -530,312 +533,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$C$5:$C$105</c:f>
+              <c:f>'Решение'!$B$5:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01205053985961664</c:v>
+                  <c:v>0.9125747193263831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01450597897536973</c:v>
+                  <c:v>0.8927537424199887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01743929587656629</c:v>
+                  <c:v>0.8704353093896546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0209335322121208</c:v>
+                  <c:v>0.8455875424323166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02508178994045661</c:v>
+                  <c:v>0.8182663422869153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02998648913151001</c:v>
+                  <c:v>0.788628977352932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03575754795530973</c:v>
+                  <c:v>0.7569401917941152</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.042509081642836</c:v>
+                  <c:v>0.7235682125526631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05035418228442858</c:v>
+                  <c:v>0.6889694287357681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05939737025141246</c:v>
+                  <c:v>0.6536625500340415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06972444592550818</c:v>
+                  <c:v>0.6181952158948621</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08138976677828597</c:v>
+                  <c:v>0.5831076629647063</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0944014667819333</c:v>
+                  <c:v>0.5488986230678574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1087058189831508</c:v>
+                  <c:v>0.515997944278708</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1241727374651351</c:v>
+                  <c:v>0.4847487748529581</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1405851365177774</c:v>
+                  <c:v>0.455400099117923</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1576352283463948</c:v>
+                  <c:v>0.4281085787290426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1749305313796815</c:v>
+                  <c:v>0.4029474469011021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1920111711920421</c:v>
+                  <c:v>0.3799197478701675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2083780466294738</c:v>
+                  <c:v>0.358973383656457</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2235290292650305</c:v>
+                  <c:v>0.3400159782608734</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2369982771453018</c:v>
+                  <c:v>0.3229282471530686</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2483927105471623</c:v>
+                  <c:v>0.3075751877860817</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2574201388959247</c:v>
+                  <c:v>0.2938148920950686</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2639053291984226</c:v>
+                  <c:v>0.2815051021178285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.267792861299803</c:v>
+                  <c:v>0.2705078050677147</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2691381120275635</c:v>
+                  <c:v>0.2606922318494544</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2680894817239873</c:v>
+                  <c:v>0.2519366215501028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2648657239582568</c:v>
+                  <c:v>0.2441290751982828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2597320458561097</c:v>
+                  <c:v>0.2371677671132531</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2529778354256127</c:v>
+                  <c:v>0.2309607251175018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2448978213088822</c:v>
+                  <c:v>0.2254253390805045</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2357774783125506</c:v>
+                  <c:v>0.2204877137908649</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2258827264002706</c:v>
+                  <c:v>0.2160819475984618</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2154534799167315</c:v>
+                  <c:v>0.212149391895417</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2047003583974379</c:v>
+                  <c:v>0.2086379270341258</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1938038065166984</c:v>
+                  <c:v>0.2055012763201621</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.182914920600016</c:v>
+                  <c:v>0.2026983699850649</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1721573866660476</c:v>
+                  <c:v>0.2001927644561321</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1616300610387593</c:v>
+                  <c:v>0.1979521179323923</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1514098456399808</c:v>
+                  <c:v>0.1959477205829716</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1415546143972756</c:v>
+                  <c:v>0.1941540761096836</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1321060308083205</c:v>
+                  <c:v>0.1925485305977619</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1230921600870222</c:v>
+                  <c:v>0.1911109442584184</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1145298251356731</c:v>
+                  <c:v>0.1898234016627388</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1064266872243417</c:v>
+                  <c:v>0.1886699562531835</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.09878305303101247</c:v>
+                  <c:v>0.1876364052121319</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.09159342248795331</c:v>
+                  <c:v>0.1867100911106468</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0848477990239031</c:v>
+                  <c:v>0.1858797271191548</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0785327870821972</c:v>
+                  <c:v>0.1851352429129379</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07263250256035396</c:v>
+                  <c:v>0.1844676487364121</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.06712932100956691</c:v>
+                  <c:v>0.1838689153944548</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.06200448671644979</c:v>
+                  <c:v>0.1833318682138351</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.05723860361288891</c:v>
+                  <c:v>0.1828500932628677</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.05281202661645282</c:v>
+                  <c:v>0.1824178543340234</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.04870516967765697</c:v>
+                  <c:v>0.182030019384433</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.044898744610396</c:v>
+                  <c:v>0.1816819952954797</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.04137394276639063</c:v>
+                  <c:v>0.181369669957527</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.03811256980884952</c:v>
+                  <c:v>0.1810893608117635</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.03509714224915232</c:v>
+                  <c:v>0.1808377690905004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.03231095302510212</c:v>
+                  <c:v>0.1806119390921563</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.02973811220507626</c:v>
+                  <c:v>0.1804092219095133</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0273635678807825</c:v>
+                  <c:v>0.1802272431013272</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.02517311144282881</c:v>
+                  <c:v>0.1800638738594805</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.023153370698839</c:v>
+                  <c:v>0.179917205277887</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.02129179367547289</c:v>
+                  <c:v>0.1797855253763856</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.01957662542710648</c:v>
+                  <c:v>0.1796672985738699</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.01799687974051446</c:v>
+                  <c:v>0.1795611473406991</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.01654230726384688</c:v>
+                  <c:v>0.1794658357917511</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.01520336128834506</c:v>
+                  <c:v>0.1793802550088975</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.01397116216297549</c:v>
+                  <c:v>0.1793034099057368</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.01283746111722825</c:v>
+                  <c:v>0.1792344074685553</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.01179460409870301</c:v>
+                  <c:v>0.1791724462260849</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.01083549609382911</c:v>
+                  <c:v>0.1791168068170088</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.009953566287095631</c:v>
+                  <c:v>0.179066843538633</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.009142734322254568</c:v>
+                  <c:v>0.1790219767729165</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.008397377854531058</c:v>
+                  <c:v>0.1789816861973618</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.007712301522932297</c:v>
+                  <c:v>0.1789455046982831</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.007082707423779228</c:v>
+                  <c:v>0.1789130129128546</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.006504167128494188</c:v>
+                  <c:v>0.1788838343342258</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.005972595258710695</c:v>
+                  <c:v>0.1788576309210042</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.005484224608468517</c:v>
+                  <c:v>0.1788340991586381</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.005035582785402878</c:v>
+                  <c:v>0.1788129665257871</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.004623470329421442</c:v>
+                  <c:v>0.1787939883237097</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.004244940257549236</c:v>
+                  <c:v>0.178776944831115</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.003897278976716103</c:v>
+                  <c:v>0.1787616387508543</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.003577988501690475</c:v>
+                  <c:v>0.1787478929183464</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.003284769912654079</c:v>
+                  <c:v>0.1787355482447687</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.003015507985675241</c:v>
+                  <c:v>0.1787244618708489</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.002768256929254157</c:v>
+                  <c:v>0.1787145055096048</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.002541227160919835</c:v>
+                  <c:v>0.1787055639586197</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.002332773059341894</c:v>
+                  <c:v>0.1786975337644521</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.002141381629407165</c:v>
+                  <c:v>0.1786903220235738</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.001965662020060475</c:v>
+                  <c:v>0.178683845305842</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.001804335837307722</c:v>
+                  <c:v>0.1786780286879526</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.001656228197536757</c:v>
+                  <c:v>0.1786728048856122</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.00152025946915551</c:v>
+                  <c:v>0.1786681134743275</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.001395437653420452</c:v>
+                  <c:v>0.1786639001897459</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.001280851358187711</c:v>
+                  <c:v>0.178660116299412</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.001175663321129948</c:v>
+                  <c:v>0.1786567180386407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,11 +849,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$D$4</c:f>
+              <c:f>'Решение'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Q</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,312 +1175,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$D$5:$D$105</c:f>
+              <c:f>'Решение'!$C$5:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0001073224291810316</c:v>
+                  <c:v>0.05823817038158809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000231347632001944</c:v>
+                  <c:v>0.06739324586660886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0003755612796959706</c:v>
+                  <c:v>0.07741467643610569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0005440401546732984</c:v>
+                  <c:v>0.08819530272184523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0007415219494816638</c:v>
+                  <c:v>0.09956378391935773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0009734682441092901</c:v>
+                  <c:v>0.1112822119611253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001246112175939625</c:v>
+                  <c:v>0.1230510177561852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001566479096914234</c:v>
+                  <c:v>0.1345224261729474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00194236494197226</c:v>
+                  <c:v>0.1453222281703822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002382253577220791</c:v>
+                  <c:v>0.1550777994016463</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.002895151887322338</c:v>
+                  <c:v>0.1634486298617708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.003490321061270223</c:v>
+                  <c:v>0.1701547197909824</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.004176886084814368</c:v>
+                  <c:v>0.1749984197964574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004963314595854243</c:v>
+                  <c:v>0.177876624781569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.005856772286175981</c:v>
+                  <c:v>0.1787822436065545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.006862384869228296</c:v>
+                  <c:v>0.1777959217549894</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.007982463890704516</c:v>
+                  <c:v>0.1750705235901465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.009215780056259656</c:v>
+                  <c:v>0.1708115882407128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.01055698559001792</c:v>
+                  <c:v>0.1652568801203139</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.01199628827359213</c:v>
+                  <c:v>0.1586575043623235</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01351945886788722</c:v>
+                  <c:v>0.1512621640301026</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0151082111705687</c:v>
+                  <c:v>0.1433052658402264</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.01674093789905521</c:v>
+                  <c:v>0.1349988946509031</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.018393729299058</c:v>
+                  <c:v>0.1265282296935782</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.02004155914445933</c:v>
+                  <c:v>0.1180497499141538</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0216595045162105</c:v>
+                  <c:v>0.1096915183686923</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.02322387363512681</c:v>
+                  <c:v>0.1015548855468262</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.02471314471860914</c:v>
+                  <c:v>0.0937170567183198</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.02610865844582918</c:v>
+                  <c:v>0.08623409156611868</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0273950467739172</c:v>
+                  <c:v>0.0791440225201062</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.02856041381829639</c:v>
+                  <c:v>0.07246987966223188</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.02959630649619039</c:v>
+                  <c:v>0.06622249078419037</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.03049752339339493</c:v>
+                  <c:v>0.06040298558455542</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.03126181190351288</c:v>
+                  <c:v>0.05500497575898462</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.03188949908093307</c:v>
+                  <c:v>0.05001641130701576</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.03238309372685668</c:v>
+                  <c:v>0.04542113115297557</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.03274688824765225</c:v>
+                  <c:v>0.04120013612429477</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.03298658027096288</c:v>
+                  <c:v>0.03733261684913241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.03310892667715787</c:v>
+                  <c:v>0.03379677006797036</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.03312143689849626</c:v>
+                  <c:v>0.0305704355540467</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.03303210803526142</c:v>
+                  <c:v>0.02763158326323405</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.03284920134941097</c:v>
+                  <c:v>0.02495867713904831</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.03258105777012758</c:v>
+                  <c:v>0.02253093861135474</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.03223594892799733</c:v>
+                  <c:v>0.02032852951490802</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.03182195970068737</c:v>
+                  <c:v>0.01833267107059592</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.03134689811956752</c:v>
+                  <c:v>0.01652571279676759</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.03081822861241392</c:v>
+                  <c:v>0.0148911627794926</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.03024302483814142</c:v>
+                  <c:v>0.01341368862735993</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.02962793873195138</c:v>
+                  <c:v>0.01207909664878477</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.02897918277351956</c:v>
+                  <c:v>0.01087429528856596</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.02830252288462043</c:v>
+                  <c:v>0.009787247612532902</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.02760327973623618</c:v>
+                  <c:v>0.008806916601004907</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.02688633658784103</c:v>
+                  <c:v>0.00792320617154302</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.02615615208818323</c:v>
+                  <c:v>0.007126900169912551</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.02541677673632463</c:v>
+                  <c:v>0.006409601019318046</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.02467187193510567</c:v>
+                  <c:v>0.00576366927916719</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.02392473076909305</c:v>
+                  <c:v>0.005182165016410145</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.02317829980862482</c:v>
+                  <c:v>0.004658791618378322</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0224352013842169</c:v>
+                  <c:v>0.004187842462142574</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.02169775589473123</c:v>
+                  <c:v>0.003764150690168381</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.02096800381153186</c:v>
+                  <c:v>0.003383042215902335</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.02024772712230413</c:v>
+                  <c:v>0.003040291988015726</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.01953847002490335</c:v>
+                  <c:v>0.002732083471925665</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.01884155873584289</c:v>
+                  <c:v>0.002454971256677837</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.01815812032183154</c:v>
+                  <c:v>0.002205846660069053</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.01748910049785515</c:v>
+                  <c:v>0.001981906181595057</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.01683528036314292</c:v>
+                  <c:v>0.001780622638687635</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.01619729206821745</c:v>
+                  <c:v>0.00159971881456485</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.01557563342315865</c:v>
+                  <c:v>0.001437143444118684</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.01497068147010428</c:v>
+                  <c:v>0.001291049366229358</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.01438270505261033</c:v>
+                  <c:v>0.001159773675643616</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.01381187642142379</c:v>
+                  <c:v>0.001041819714240718</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.01325828192099722</c:v>
+                  <c:v>0.0009358407494803626</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.01272193180412699</c:v>
+                  <c:v>0.0008406251965786655</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.01220276922378009</c:v>
+                  <c:v>0.0007550832501097968</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.01170067845178048</c:v>
+                  <c:v>0.0006782347999958492</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01121549237379417</c:v>
+                  <c:v>0.0006091985160151951</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.01074699930917943</c:v>
+                  <c:v>0.0005471819938784271</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.01029494920291445</c:v>
+                  <c:v>0.0004914728644853825</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.009859059235108733</c:v>
+                  <c:v>0.0004414307761168211</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0094390188916518</c:v>
+                  <c:v>0.0003964801669874198</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.009034494537436179</c:v>
+                  <c:v>0.0003561037527709552</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.008645133531379551</c:v>
+                  <c:v>0.0003198366603974668</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.008270567920214343</c:v>
+                  <c:v>0.0002872611456208117</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.00791041774575451</c:v>
+                  <c:v>0.000258001837576537</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.007564293998119694</c:v>
+                  <c:v>0.0002317214588132997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.007231801245220822</c:v>
+                  <c:v>0.0002081169741088202</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.006912539966706008</c:v>
+                  <c:v>0.0001869161257985547</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0066061086185443</c:v>
+                  <c:v>0.0001678743173780511</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.006312105452495845</c:v>
+                  <c:v>0.000150771810814833</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.006030130112885934</c:v>
+                  <c:v>0.0001354112063488796</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.005759785031369927</c:v>
+                  <c:v>0.0001216151765978651</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.005500676638747059</c:v>
+                  <c:v>0.0001092244295388281</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.005252416411352844</c:v>
+                  <c:v>9.809587743515771e-05</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.005014621768130286</c:v>
+                  <c:v>8.810099103869818e-05</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.004786916833146472</c:v>
+                  <c:v>7.912432044194663e-05</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.004568933077079954</c:v>
+                  <c:v>7.106216580391089e-05</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.004360309850051577</c:v>
+                  <c:v>6.382138284295323e-05</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.004160694817102884</c:v>
+                  <c:v>5.731830949724707e-05</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.003969744306637506</c:v>
+                  <c:v>5.147780151338882e-05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,11 +1491,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$E$4</c:f>
+              <c:f>'Решение'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R</c:v>
+                  <c:v>Q</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1814,312 +1817,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$E$5:$E$105</c:f>
+              <c:f>'Решение'!$D$5:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001102042331728337</c:v>
+                  <c:v>0.01076964649729887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.002434585378748512</c:v>
+                  <c:v>0.01168798335810103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00404260543331387</c:v>
+                  <c:v>0.01276826630786363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0059790663159291</c:v>
+                  <c:v>0.01402181820933189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.008305961834890812</c:v>
+                  <c:v>0.01545688922495923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01109532686722422</c:v>
+                  <c:v>0.01707744905532788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01443012625445262</c:v>
+                  <c:v>0.01888203713014931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01840489297866325</c:v>
+                  <c:v>0.02086282711736636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0231259439670305</c:v>
+                  <c:v>0.02300506840117185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02871095794300603</c:v>
+                  <c:v>0.02528703978472109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.03528766359065124</c:v>
+                  <c:v>0.02768058860902156</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0429913713931861</c:v>
+                  <c:v>0.03015224207937676</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05196110690832625</c:v>
+                  <c:v>0.03266478672093041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.06233418705145923</c:v>
+                  <c:v>0.03517913946906306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.07423924044547056</c:v>
+                  <c:v>0.03765629754362666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.08778791121511516</c:v>
+                  <c:v>0.04005916010361803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1030657820820208</c:v>
+                  <c:v>0.04235405638098286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1201233555609982</c:v>
+                  <c:v>0.04451187767014442</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1389681619671044</c:v>
+                  <c:v>0.04650877713663822</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1595591313689985</c:v>
+                  <c:v>0.04832645817912883</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1818042088908116</c:v>
+                  <c:v>0.04995211144995904</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2055618023793554</c:v>
+                  <c:v>0.05137808111940999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.230646097328777</c:v>
+                  <c:v>0.05260134534624704</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2568356859967953</c:v>
+                  <c:v>0.05362288898586287</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2838844825700986</c:v>
+                  <c:v>0.05444703328943768</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3115336437967138</c:v>
+                  <c:v>0.05508077178113025</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3395232209456409</c:v>
+                  <c:v>0.05553314642048058</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3676024939102723</c:v>
+                  <c:v>0.05581468512804853</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.395538291693292</c:v>
+                  <c:v>0.05593691140803224</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4231209847305161</c:v>
+                  <c:v>0.05591192916770132</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4501681642317437</c:v>
+                  <c:v>0.05575208059990245</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4765262587890479</c:v>
+                  <c:v>0.05546967171191273</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5020704702826534</c:v>
+                  <c:v>0.055076758284188</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5267034544490425</c:v>
+                  <c:v>0.05458498430628179</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5503531518717735</c:v>
+                  <c:v>0.05400546491902248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5729701188458221</c:v>
+                  <c:v>0.05334870632512942</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5945246359425168</c:v>
+                  <c:v>0.05262455581901946</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6150037998667898</c:v>
+                  <c:v>0.05184217589353388</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6344087398318545</c:v>
+                  <c:v>0.05101003721536921</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.652752046918873</c:v>
+                  <c:v>0.05013592606479744</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6700554643784215</c:v>
+                  <c:v>0.04922696257577562</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.686347857468997</c:v>
+                  <c:v>0.04828962677343554</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7016634613520253</c:v>
+                  <c:v>0.04732978998189256</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.7160403927460814</c:v>
+                  <c:v>0.0463527496679055</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7295194036195315</c:v>
+                  <c:v>0.04536326620077415</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7421428516055083</c:v>
+                  <c:v>0.04436560035366854</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7539538608225109</c:v>
+                  <c:v>0.04336355065483306</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7649956474502581</c:v>
+                  <c:v>0.04236048992727906</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.7753109860727779</c:v>
+                  <c:v>0.04135940054067389</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.78494179499098</c:v>
+                  <c:v>0.04036290804642445</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7939288211104298</c:v>
+                  <c:v>0.03937331298287474</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8023114074240498</c:v>
+                  <c:v>0.03839262072767557</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.8101273284107049</c:v>
+                  <c:v>0.03742256934351239</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8174126807904489</c:v>
+                  <c:v>0.03646465541552302</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.8242018189834939</c:v>
+                  <c:v>0.03552015791726734</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.8305273263041459</c:v>
+                  <c:v>0.03459016016981173</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.8364200143889788</c:v>
+                  <c:v>0.03367556997765457</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.8419089446246586</c:v>
+                  <c:v>0.03277713803771317</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.8470214664236017</c:v>
+                  <c:v>0.03189547472493406</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.851783268115118</c:v>
+                  <c:v>0.03103106536149692</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.8562184369958667</c:v>
+                  <c:v>0.03018428407703609</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.8603495257352938</c:v>
+                  <c:v>0.02935540636557952</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.8641976228766195</c:v>
+                  <c:v>0.02854462044161634</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.8677824256275209</c:v>
+                  <c:v>0.02775203749333387</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8711223135106708</c:v>
+                  <c:v>0.02697770092598528</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.8742344217547858</c:v>
+                  <c:v>0.02622159468284919</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.8771347135621715</c:v>
+                  <c:v>0.02548365072554123</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.8798380505978369</c:v>
+                  <c:v>0.02476375574969858</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8823582612156815</c:v>
+                  <c:v>0.02406175720640291</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.8847082060754703</c:v>
+                  <c:v>0.02337746869422197</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.8868998409157522</c:v>
+                  <c:v>0.02271067478149402</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8889442763371326</c:v>
+                  <c:v>0.02206113531349349</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.890851834521233</c:v>
+                  <c:v>0.02142858925442245</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.8926321028664886</c:v>
+                  <c:v>0.0208127581097833</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.8942939845653416</c:v>
+                  <c:v>0.02021334897060546</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8958457461806449</c:v>
+                  <c:v>0.01963005721721865</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8972950623040652</c:v>
+                  <c:v>0.01906256891677892</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8986490573975177</c:v>
+                  <c:v>0.01851056294554838</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8999143449314895</c:v>
+                  <c:v>0.01797371286399154</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.901097063942553</c:v>
+                  <c:v>0.01745168857006479</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.9022029131373466</c:v>
+                  <c:v>0.01694415775362388</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.9032371826725156</c:v>
+                  <c:v>0.01645078717264208</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.904204783740164</c:v>
+                  <c:v>0.01597124376990156</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9051102760867616</c:v>
+                  <c:v>0.01550519564697749</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.9059578935905739</c:v>
+                  <c:v>0.01505231291066355</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.9067515680188614</c:v>
+                  <c:v>0.01461226840547348</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9074949510815978</c:v>
+                  <c:v>0.01418473834448411</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.9081914348934899</c:v>
+                  <c:v>0.01376940284954736</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.9088441709508145</c:v>
+                  <c:v>0.01336594641077999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.9094560877241665</c:v>
+                  <c:v>0.01297405827423108</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9100299069627252</c:v>
+                  <c:v>0.01259343276571655</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.910568158800191</c:v>
+                  <c:v>0.01222376955798925</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.9110731957471833</c:v>
+                  <c:v>0.01186477388767384</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.9115472056496595</c:v>
+                  <c:v>0.01151615672772979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.9119922236878687</c:v>
+                  <c:v>0.01117763492060629</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.9124101434854961</c:v>
+                  <c:v>0.01084893127671379</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.9128027273940249</c:v>
+                  <c:v>0.01052977464235166</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.9131716160129266</c:v>
+                  <c:v>0.01021989994079543</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.9135183370021175</c:v>
+                  <c:v>0.009919048189855333</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.913844313239171</c:v>
+                  <c:v>0.009626966498865342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,9 +2133,12 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$F$4</c:f>
+              <c:f>'Решение'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2453,10 +2459,313 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$F$5:$F$105</c:f>
+              <c:f>'Решение'!$E$5:$E$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01841746379472997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02816502835530147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03938174786637615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05219533663650633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06671298456876774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08301136163061487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1011267533195503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1210465341570231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.142703274692678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1659726107795912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1906755656343455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2165853751649345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2434381704147547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2709462914706598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2988126839968607</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3267448190234695</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3544668412998279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3817290871880406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4083145948728802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4340426538020905</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4587697462590647</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4823884058872949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.504824572216768</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5260339892254902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5459981146785797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5647199047824625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5822197361832385</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5985316366035286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6136999218275659</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.627776281198939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6408173146203635</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6528824984233921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6640325423403914</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6743280923362716</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6838287318785445</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6925922354877689</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7006740317365234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.7081268372722687</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7150004282605281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.7213415204487633</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7271937335780185</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7325976199778323</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7375907408089907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7422077765587679</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7464806610658911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7504387305963802</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7541088813535423</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7575157303347141</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.7606817756913864</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.7636275537520715</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.7663717906681801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.7689315472768644</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.7713223562711092</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.7735583511516965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.775652386729391</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.7776161511665878</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7794602697104552</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.7811944003863811</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.7828273220011595</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.7843670148578338</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.7858207346149049</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7871950797368911</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.7884960529851304</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.7897291173905073</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.7908992471360583</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.7920109737591697</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7930684280619008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.794075378095037</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7950352635577268</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7959512269306506</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7968261416371251</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7976626375037099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.7984631237700117</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7992298098766286</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.7999647242406511</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.8006697312098684</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8013465463698435</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8019967503622895</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8026218013586678</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.803223046319592</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8038017311583839</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8043590099159482</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8048959530439133</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8054135548836914</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8059127404206443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8063943713848584</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8068592517630601</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8073081327798848</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8077417174009924</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.8081606644053487</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.8085655920693143</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.8089570815009602</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.809335679659213</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.8097019020889925</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.8100562354004019</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8103991395172316</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8107310497175164</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.8110523784866152</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8113635172012349</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8116648376609801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2961,7 +3270,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2974,7 +3283,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2992,35 +3301,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3028,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
         <v>0.01</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3045,16 +3354,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.9867400953794739</v>
+        <v>0.9125747193263831</v>
       </c>
       <c r="C6">
-        <v>0.01205053985961664</v>
+        <v>0.05823817038158809</v>
       </c>
       <c r="D6">
-        <v>0.0001073224291810316</v>
+        <v>0.01076964649729887</v>
       </c>
       <c r="E6">
-        <v>0.001102042331728337</v>
+        <v>0.01841746379472997</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3062,16 +3371,16 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.9828280880138798</v>
+        <v>0.8927537424199887</v>
       </c>
       <c r="C7">
-        <v>0.01450597897536973</v>
+        <v>0.06739324586660886</v>
       </c>
       <c r="D7">
-        <v>0.000231347632001944</v>
+        <v>0.01168798335810103</v>
       </c>
       <c r="E7">
-        <v>0.002434585378748512</v>
+        <v>0.02816502835530147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3079,16 +3388,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.9781425374104238</v>
+        <v>0.8704353093896546</v>
       </c>
       <c r="C8">
-        <v>0.01743929587656629</v>
+        <v>0.07741467643610569</v>
       </c>
       <c r="D8">
-        <v>0.0003755612796959706</v>
+        <v>0.01276826630786363</v>
       </c>
       <c r="E8">
-        <v>0.00404260543331387</v>
+        <v>0.03938174786637615</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3096,16 +3405,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.9725433613172767</v>
+        <v>0.8455875424323166</v>
       </c>
       <c r="C9">
-        <v>0.0209335322121208</v>
+        <v>0.08819530272184523</v>
       </c>
       <c r="D9">
-        <v>0.0005440401546732984</v>
+        <v>0.01402181820933189</v>
       </c>
       <c r="E9">
-        <v>0.0059790663159291</v>
+        <v>0.05219533663650633</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3113,16 +3422,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.9658707262751708</v>
+        <v>0.8182663422869153</v>
       </c>
       <c r="C10">
-        <v>0.02508178994045661</v>
+        <v>0.09956378391935773</v>
       </c>
       <c r="D10">
-        <v>0.0007415219494816638</v>
+        <v>0.01545688922495923</v>
       </c>
       <c r="E10">
-        <v>0.008305961834890812</v>
+        <v>0.06671298456876774</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3130,16 +3439,16 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.9579447157571563</v>
+        <v>0.788628977352932</v>
       </c>
       <c r="C11">
-        <v>0.02998648913151001</v>
+        <v>0.1112822119611253</v>
       </c>
       <c r="D11">
-        <v>0.0009734682441092901</v>
+        <v>0.01707744905532788</v>
       </c>
       <c r="E11">
-        <v>0.01109532686722422</v>
+        <v>0.08301136163061487</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3147,16 +3456,16 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.9485662136142978</v>
+        <v>0.7569401917941152</v>
       </c>
       <c r="C12">
-        <v>0.03575754795530973</v>
+        <v>0.1230510177561852</v>
       </c>
       <c r="D12">
-        <v>0.001246112175939625</v>
+        <v>0.01888203713014931</v>
       </c>
       <c r="E12">
-        <v>0.01443012625445262</v>
+        <v>0.1011267533195503</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3164,16 +3473,16 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.9375195462815863</v>
+        <v>0.7235682125526631</v>
       </c>
       <c r="C13">
-        <v>0.042509081642836</v>
+        <v>0.1345224261729474</v>
       </c>
       <c r="D13">
-        <v>0.001566479096914234</v>
+        <v>0.02086282711736636</v>
       </c>
       <c r="E13">
-        <v>0.01840489297866325</v>
+        <v>0.1210465341570231</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3181,16 +3490,16 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.9245775088065684</v>
+        <v>0.6889694287357681</v>
       </c>
       <c r="C14">
-        <v>0.05035418228442858</v>
+        <v>0.1453222281703822</v>
       </c>
       <c r="D14">
-        <v>0.00194236494197226</v>
+        <v>0.02300506840117185</v>
       </c>
       <c r="E14">
-        <v>0.0231259439670305</v>
+        <v>0.142703274692678</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3198,16 +3507,16 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.9095094182283605</v>
+        <v>0.6536625500340415</v>
       </c>
       <c r="C15">
-        <v>0.05939737025141246</v>
+        <v>0.1550777994016463</v>
       </c>
       <c r="D15">
-        <v>0.002382253577220791</v>
+        <v>0.02528703978472109</v>
       </c>
       <c r="E15">
-        <v>0.02871095794300603</v>
+        <v>0.1659726107795912</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3215,16 +3524,16 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.8920927385965181</v>
+        <v>0.6181952158948621</v>
       </c>
       <c r="C16">
-        <v>0.06972444592550818</v>
+        <v>0.1634486298617708</v>
       </c>
       <c r="D16">
-        <v>0.002895151887322338</v>
+        <v>0.02768058860902156</v>
       </c>
       <c r="E16">
-        <v>0.03528766359065124</v>
+        <v>0.1906755656343455</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3232,16 +3541,16 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.8721285407672575</v>
+        <v>0.5831076629647063</v>
       </c>
       <c r="C17">
-        <v>0.08138976677828597</v>
+        <v>0.1701547197909824</v>
       </c>
       <c r="D17">
-        <v>0.003490321061270223</v>
+        <v>0.03015224207937676</v>
       </c>
       <c r="E17">
-        <v>0.0429913713931861</v>
+        <v>0.2165853751649345</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3249,16 +3558,16 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.8494605402249259</v>
+        <v>0.5488986230678574</v>
       </c>
       <c r="C18">
-        <v>0.0944014667819333</v>
+        <v>0.1749984197964574</v>
       </c>
       <c r="D18">
-        <v>0.004176886084814368</v>
+        <v>0.03266478672093041</v>
       </c>
       <c r="E18">
-        <v>0.05196110690832625</v>
+        <v>0.2434381704147547</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3266,16 +3575,16 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.8239966793695356</v>
+        <v>0.515997944278708</v>
       </c>
       <c r="C19">
-        <v>0.1087058189831508</v>
+        <v>0.177876624781569</v>
       </c>
       <c r="D19">
-        <v>0.004963314595854243</v>
+        <v>0.03517913946906306</v>
       </c>
       <c r="E19">
-        <v>0.06233418705145923</v>
+        <v>0.2709462914706598</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3283,16 +3592,16 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.7957312498032183</v>
+        <v>0.4847487748529581</v>
       </c>
       <c r="C20">
-        <v>0.1241727374651351</v>
+        <v>0.1787822436065545</v>
       </c>
       <c r="D20">
-        <v>0.005856772286175981</v>
+        <v>0.03765629754362666</v>
       </c>
       <c r="E20">
-        <v>0.07423924044547056</v>
+        <v>0.2988126839968607</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3300,16 +3609,16 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.764764567397879</v>
+        <v>0.455400099117923</v>
       </c>
       <c r="C21">
-        <v>0.1405851365177774</v>
+        <v>0.1777959217549894</v>
       </c>
       <c r="D21">
-        <v>0.006862384869228296</v>
+        <v>0.04005916010361803</v>
       </c>
       <c r="E21">
-        <v>0.08778791121511516</v>
+        <v>0.3267448190234695</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3317,16 +3626,16 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.7313165256808798</v>
+        <v>0.4281085787290426</v>
       </c>
       <c r="C22">
-        <v>0.1576352283463948</v>
+        <v>0.1750705235901465</v>
       </c>
       <c r="D22">
-        <v>0.007982463890704516</v>
+        <v>0.04235405638098286</v>
       </c>
       <c r="E22">
-        <v>0.1030657820820208</v>
+        <v>0.3544668412998279</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3334,16 +3643,16 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.6957303330030606</v>
+        <v>0.4029474469011021</v>
       </c>
       <c r="C23">
-        <v>0.1749305313796815</v>
+        <v>0.1708115882407128</v>
       </c>
       <c r="D23">
-        <v>0.009215780056259656</v>
+        <v>0.04451187767014442</v>
       </c>
       <c r="E23">
-        <v>0.1201233555609982</v>
+        <v>0.3817290871880406</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3351,16 +3660,16 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.6584636812508354</v>
+        <v>0.3799197478701675</v>
       </c>
       <c r="C24">
-        <v>0.1920111711920421</v>
+        <v>0.1652568801203139</v>
       </c>
       <c r="D24">
-        <v>0.01055698559001792</v>
+        <v>0.04650877713663822</v>
       </c>
       <c r="E24">
-        <v>0.1389681619671044</v>
+        <v>0.4083145948728802</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3368,16 +3677,16 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.6200665337279354</v>
+        <v>0.358973383656457</v>
       </c>
       <c r="C25">
-        <v>0.2083780466294738</v>
+        <v>0.1586575043623235</v>
       </c>
       <c r="D25">
-        <v>0.01199628827359213</v>
+        <v>0.04832645817912883</v>
       </c>
       <c r="E25">
-        <v>0.1595591313689985</v>
+        <v>0.4340426538020905</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3385,16 +3694,16 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.5811473029762705</v>
+        <v>0.3400159782608734</v>
       </c>
       <c r="C26">
-        <v>0.2235290292650305</v>
+        <v>0.1512621640301026</v>
       </c>
       <c r="D26">
-        <v>0.01351945886788722</v>
+        <v>0.04995211144995904</v>
       </c>
       <c r="E26">
-        <v>0.1818042088908116</v>
+        <v>0.4587697462590647</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3402,16 +3711,16 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.542331709304774</v>
+        <v>0.3229282471530686</v>
       </c>
       <c r="C27">
-        <v>0.2369982771453018</v>
+        <v>0.1433052658402264</v>
       </c>
       <c r="D27">
-        <v>0.0151082111705687</v>
+        <v>0.05137808111940999</v>
       </c>
       <c r="E27">
-        <v>0.2055618023793554</v>
+        <v>0.4823884058872949</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3419,16 +3728,16 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.5042202542250053</v>
+        <v>0.3075751877860817</v>
       </c>
       <c r="C28">
-        <v>0.2483927105471623</v>
+        <v>0.1349988946509031</v>
       </c>
       <c r="D28">
-        <v>0.01674093789905521</v>
+        <v>0.05260134534624704</v>
       </c>
       <c r="E28">
-        <v>0.230646097328777</v>
+        <v>0.504824572216768</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3436,16 +3745,16 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.4673504458082218</v>
+        <v>0.2938148920950686</v>
       </c>
       <c r="C29">
-        <v>0.2574201388959247</v>
+        <v>0.1265282296935782</v>
       </c>
       <c r="D29">
-        <v>0.018393729299058</v>
+        <v>0.05362288898586287</v>
       </c>
       <c r="E29">
-        <v>0.2568356859967953</v>
+        <v>0.5260339892254902</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3453,16 +3762,16 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.4321686290870194</v>
+        <v>0.2815051021178285</v>
       </c>
       <c r="C30">
-        <v>0.2639053291984226</v>
+        <v>0.1180497499141538</v>
       </c>
       <c r="D30">
-        <v>0.02004155914445933</v>
+        <v>0.05444703328943768</v>
       </c>
       <c r="E30">
-        <v>0.2838844825700986</v>
+        <v>0.5459981146785797</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3470,16 +3779,16 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.3990139903872726</v>
+        <v>0.2705078050677147</v>
       </c>
       <c r="C31">
-        <v>0.267792861299803</v>
+        <v>0.1096915183686923</v>
       </c>
       <c r="D31">
-        <v>0.0216595045162105</v>
+        <v>0.05508077178113025</v>
       </c>
       <c r="E31">
-        <v>0.3115336437967138</v>
+        <v>0.5647199047824625</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3487,16 +3796,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.3681147933916686</v>
+        <v>0.2606922318494544</v>
       </c>
       <c r="C32">
-        <v>0.2691381120275635</v>
+        <v>0.1015548855468262</v>
       </c>
       <c r="D32">
-        <v>0.02322387363512681</v>
+        <v>0.05553314642048058</v>
       </c>
       <c r="E32">
-        <v>0.3395232209456409</v>
+        <v>0.5822197361832385</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3504,16 +3813,16 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.3395948796471311</v>
+        <v>0.2519366215501028</v>
       </c>
       <c r="C33">
-        <v>0.2680894817239873</v>
+        <v>0.0937170567183198</v>
       </c>
       <c r="D33">
-        <v>0.02471314471860914</v>
+        <v>0.05581468512804853</v>
       </c>
       <c r="E33">
-        <v>0.3676024939102723</v>
+        <v>0.5985316366035286</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3521,16 +3830,16 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.3134873259026218</v>
+        <v>0.2441290751982828</v>
       </c>
       <c r="C34">
-        <v>0.2648657239582568</v>
+        <v>0.08623409156611868</v>
       </c>
       <c r="D34">
-        <v>0.02610865844582918</v>
+        <v>0.05593691140803224</v>
       </c>
       <c r="E34">
-        <v>0.395538291693292</v>
+        <v>0.6136999218275659</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3538,16 +3847,16 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.2897519226394569</v>
+        <v>0.2371677671132531</v>
       </c>
       <c r="C35">
-        <v>0.2597320458561097</v>
+        <v>0.0791440225201062</v>
       </c>
       <c r="D35">
-        <v>0.0273950467739172</v>
+        <v>0.05591192916770132</v>
       </c>
       <c r="E35">
-        <v>0.4231209847305161</v>
+        <v>0.627776281198939</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3555,16 +3864,16 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.268293586524347</v>
+        <v>0.2309607251175018</v>
       </c>
       <c r="C36">
-        <v>0.2529778354256127</v>
+        <v>0.07246987966223188</v>
       </c>
       <c r="D36">
-        <v>0.02856041381829639</v>
+        <v>0.05575208059990245</v>
       </c>
       <c r="E36">
-        <v>0.4501681642317437</v>
+        <v>0.6408173146203635</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3572,16 +3881,16 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.2489796134058793</v>
+        <v>0.2254253390805045</v>
       </c>
       <c r="C37">
-        <v>0.2448978213088822</v>
+        <v>0.06622249078419037</v>
       </c>
       <c r="D37">
-        <v>0.02959630649619039</v>
+        <v>0.05546967171191273</v>
       </c>
       <c r="E37">
-        <v>0.4765262587890479</v>
+        <v>0.6528824984233921</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3589,16 +3898,16 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.2316545280114009</v>
+        <v>0.2204877137908649</v>
       </c>
       <c r="C38">
-        <v>0.2357774783125506</v>
+        <v>0.06040298558455542</v>
       </c>
       <c r="D38">
-        <v>0.03049752339339493</v>
+        <v>0.055076758284188</v>
       </c>
       <c r="E38">
-        <v>0.5020704702826534</v>
+        <v>0.6640325423403914</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3606,16 +3915,16 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.2161520072471739</v>
+        <v>0.2160819475984618</v>
       </c>
       <c r="C39">
-        <v>0.2258827264002706</v>
+        <v>0.05500497575898462</v>
       </c>
       <c r="D39">
-        <v>0.03126181190351288</v>
+        <v>0.05458498430628179</v>
       </c>
       <c r="E39">
-        <v>0.5267034544490425</v>
+        <v>0.6743280923362716</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3623,16 +3932,16 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.2023038691305618</v>
+        <v>0.212149391895417</v>
       </c>
       <c r="C40">
-        <v>0.2154534799167315</v>
+        <v>0.05001641130701576</v>
       </c>
       <c r="D40">
-        <v>0.03188949908093307</v>
+        <v>0.05400546491902248</v>
       </c>
       <c r="E40">
-        <v>0.5503531518717735</v>
+        <v>0.6838287318785445</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3640,16 +3949,16 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.1899464290298832</v>
+        <v>0.2086379270341258</v>
       </c>
       <c r="C41">
-        <v>0.2047003583974379</v>
+        <v>0.04542113115297557</v>
       </c>
       <c r="D41">
-        <v>0.03238309372685668</v>
+        <v>0.05334870632512942</v>
       </c>
       <c r="E41">
-        <v>0.5729701188458221</v>
+        <v>0.6925922354877689</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3657,16 +3966,16 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.1789246692931324</v>
+        <v>0.2055012763201621</v>
       </c>
       <c r="C42">
-        <v>0.1938038065166984</v>
+        <v>0.04120013612429477</v>
       </c>
       <c r="D42">
-        <v>0.03274688824765225</v>
+        <v>0.05262455581901946</v>
       </c>
       <c r="E42">
-        <v>0.5945246359425168</v>
+        <v>0.7006740317365234</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3674,16 +3983,16 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.1690946992622311</v>
+        <v>0.2026983699850649</v>
       </c>
       <c r="C43">
-        <v>0.182914920600016</v>
+        <v>0.03733261684913241</v>
       </c>
       <c r="D43">
-        <v>0.03298658027096288</v>
+        <v>0.05184217589353388</v>
       </c>
       <c r="E43">
-        <v>0.6150037998667898</v>
+        <v>0.7081268372722687</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3691,16 +4000,16 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.1603249468249399</v>
+        <v>0.2001927644561321</v>
       </c>
       <c r="C44">
-        <v>0.1721573866660476</v>
+        <v>0.03379677006797036</v>
       </c>
       <c r="D44">
-        <v>0.03310892667715787</v>
+        <v>0.05101003721536921</v>
       </c>
       <c r="E44">
-        <v>0.6344087398318545</v>
+        <v>0.7150004282605281</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3708,16 +4017,16 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.1524964551438713</v>
+        <v>0.1979521179323923</v>
       </c>
       <c r="C45">
-        <v>0.1616300610387593</v>
+        <v>0.0305704355540467</v>
       </c>
       <c r="D45">
-        <v>0.03312143689849626</v>
+        <v>0.05013592606479744</v>
       </c>
       <c r="E45">
-        <v>0.652752046918873</v>
+        <v>0.7213415204487633</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3725,16 +4034,16 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.1455025819463362</v>
+        <v>0.1959477205829716</v>
       </c>
       <c r="C46">
-        <v>0.1514098456399808</v>
+        <v>0.02763158326323405</v>
       </c>
       <c r="D46">
-        <v>0.03303210803526142</v>
+        <v>0.04922696257577562</v>
       </c>
       <c r="E46">
-        <v>0.6700554643784215</v>
+        <v>0.7271937335780185</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3742,16 +4051,16 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.1392483267843163</v>
+        <v>0.1941540761096836</v>
       </c>
       <c r="C47">
-        <v>0.1415546143972756</v>
+        <v>0.02495867713904831</v>
       </c>
       <c r="D47">
-        <v>0.03284920134941097</v>
+        <v>0.04828962677343554</v>
       </c>
       <c r="E47">
-        <v>0.686347857468997</v>
+        <v>0.7325976199778323</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3759,16 +4068,16 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.1336494500695266</v>
+        <v>0.1925485305977619</v>
       </c>
       <c r="C48">
-        <v>0.1321060308083205</v>
+        <v>0.02253093861135474</v>
       </c>
       <c r="D48">
-        <v>0.03258105777012758</v>
+        <v>0.04732978998189256</v>
       </c>
       <c r="E48">
-        <v>0.7016634613520253</v>
+        <v>0.7375907408089907</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3776,16 +4085,16 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.1286314982388989</v>
+        <v>0.1911109442584184</v>
       </c>
       <c r="C49">
-        <v>0.1230921600870222</v>
+        <v>0.02032852951490802</v>
       </c>
       <c r="D49">
-        <v>0.03223594892799733</v>
+        <v>0.0463527496679055</v>
       </c>
       <c r="E49">
-        <v>0.7160403927460814</v>
+        <v>0.7422077765587679</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3793,16 +4102,16 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.1241288115441079</v>
+        <v>0.1898234016627388</v>
       </c>
       <c r="C50">
-        <v>0.1145298251356731</v>
+        <v>0.01833267107059592</v>
       </c>
       <c r="D50">
-        <v>0.03182195970068737</v>
+        <v>0.04536326620077415</v>
       </c>
       <c r="E50">
-        <v>0.7295194036195315</v>
+        <v>0.7464806610658911</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3810,16 +4119,16 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.1200835630505823</v>
+        <v>0.1886699562531835</v>
       </c>
       <c r="C51">
-        <v>0.1064266872243417</v>
+        <v>0.01652571279676759</v>
       </c>
       <c r="D51">
-        <v>0.03134689811956752</v>
+        <v>0.04436560035366854</v>
       </c>
       <c r="E51">
-        <v>0.7421428516055083</v>
+        <v>0.7504387305963802</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3827,16 +4136,16 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.1164448575340626</v>
+        <v>0.1876364052121319</v>
       </c>
       <c r="C52">
-        <v>0.09878305303101247</v>
+        <v>0.0148911627794926</v>
       </c>
       <c r="D52">
-        <v>0.03081822861241392</v>
+        <v>0.04336355065483306</v>
       </c>
       <c r="E52">
-        <v>0.7539538608225109</v>
+        <v>0.7541088813535423</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3844,16 +4153,16 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.1131679052236471</v>
+        <v>0.1867100911106468</v>
       </c>
       <c r="C53">
-        <v>0.09159342248795331</v>
+        <v>0.01341368862735993</v>
       </c>
       <c r="D53">
-        <v>0.03024302483814142</v>
+        <v>0.04236048992727906</v>
       </c>
       <c r="E53">
-        <v>0.7649956474502581</v>
+        <v>0.7575157303347141</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3861,16 +4170,16 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.1102132761713675</v>
+        <v>0.1858797271191548</v>
       </c>
       <c r="C54">
-        <v>0.0848477990239031</v>
+        <v>0.01207909664878477</v>
       </c>
       <c r="D54">
-        <v>0.02962793873195138</v>
+        <v>0.04135940054067389</v>
       </c>
       <c r="E54">
-        <v>0.7753109860727779</v>
+        <v>0.7606817756913864</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3878,16 +4187,16 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.1075462351533032</v>
+        <v>0.1851352429129379</v>
       </c>
       <c r="C55">
-        <v>0.0785327870821972</v>
+        <v>0.01087429528856596</v>
       </c>
       <c r="D55">
-        <v>0.02897918277351956</v>
+        <v>0.04036290804642445</v>
       </c>
       <c r="E55">
-        <v>0.78494179499098</v>
+        <v>0.7636275537520715</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3895,16 +4204,16 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.1051361534445958</v>
+        <v>0.1844676487364121</v>
       </c>
       <c r="C56">
-        <v>0.07263250256035396</v>
+        <v>0.009787247612532902</v>
       </c>
       <c r="D56">
-        <v>0.02830252288462043</v>
+        <v>0.03937331298287474</v>
       </c>
       <c r="E56">
-        <v>0.7939288211104298</v>
+        <v>0.7663717906681801</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3912,16 +4221,16 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.1029559918301471</v>
+        <v>0.1838689153944548</v>
       </c>
       <c r="C57">
-        <v>0.06712932100956691</v>
+        <v>0.008806916601004907</v>
       </c>
       <c r="D57">
-        <v>0.02760327973623618</v>
+        <v>0.03839262072767557</v>
       </c>
       <c r="E57">
-        <v>0.8023114074240498</v>
+        <v>0.7689315472768644</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3929,16 +4238,16 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.1009818482850043</v>
+        <v>0.1833318682138351</v>
       </c>
       <c r="C58">
-        <v>0.06200448671644979</v>
+        <v>0.00792320617154302</v>
       </c>
       <c r="D58">
-        <v>0.02688633658784103</v>
+        <v>0.03742256934351239</v>
       </c>
       <c r="E58">
-        <v>0.8101273284107049</v>
+        <v>0.7713223562711092</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3946,16 +4255,16 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.09919256350847885</v>
+        <v>0.1828500932628677</v>
       </c>
       <c r="C59">
-        <v>0.05723860361288891</v>
+        <v>0.007126900169912551</v>
       </c>
       <c r="D59">
-        <v>0.02615615208818323</v>
+        <v>0.03646465541552302</v>
       </c>
       <c r="E59">
-        <v>0.8174126807904489</v>
+        <v>0.7735583511516965</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3963,16 +4272,16 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.09756937766372854</v>
+        <v>0.1824178543340234</v>
       </c>
       <c r="C60">
-        <v>0.05281202661645282</v>
+        <v>0.006409601019318046</v>
       </c>
       <c r="D60">
-        <v>0.02541677673632463</v>
+        <v>0.03552015791726734</v>
       </c>
       <c r="E60">
-        <v>0.8242018189834939</v>
+        <v>0.775652386729391</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3980,16 +4289,16 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.09609563208309131</v>
+        <v>0.182030019384433</v>
       </c>
       <c r="C61">
-        <v>0.04870516967765697</v>
+        <v>0.00576366927916719</v>
       </c>
       <c r="D61">
-        <v>0.02467187193510567</v>
+        <v>0.03459016016981173</v>
       </c>
       <c r="E61">
-        <v>0.8305273263041459</v>
+        <v>0.7776161511665878</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3997,16 +4306,16 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.09475651023153206</v>
+        <v>0.1816819952954797</v>
       </c>
       <c r="C62">
-        <v>0.044898744610396</v>
+        <v>0.005182165016410145</v>
       </c>
       <c r="D62">
-        <v>0.02392473076909305</v>
+        <v>0.03367556997765457</v>
       </c>
       <c r="E62">
-        <v>0.8364200143889788</v>
+        <v>0.7794602697104552</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4014,16 +4323,16 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.09353881280032592</v>
+        <v>0.181369669957527</v>
       </c>
       <c r="C63">
-        <v>0.04137394276639063</v>
+        <v>0.004658791618378322</v>
       </c>
       <c r="D63">
-        <v>0.02317829980862482</v>
+        <v>0.03277713803771317</v>
       </c>
       <c r="E63">
-        <v>0.8419089446246586</v>
+        <v>0.7811944003863811</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4031,16 +4340,16 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.09243076238333182</v>
+        <v>0.1810893608117635</v>
       </c>
       <c r="C64">
-        <v>0.03811256980884952</v>
+        <v>0.004187842462142574</v>
       </c>
       <c r="D64">
-        <v>0.0224352013842169</v>
+        <v>0.03189547472493406</v>
       </c>
       <c r="E64">
-        <v>0.8470214664236017</v>
+        <v>0.7828273220011595</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4048,16 +4357,16 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.09142183374099837</v>
+        <v>0.1808377690905004</v>
       </c>
       <c r="C65">
-        <v>0.03509714224915232</v>
+        <v>0.003764150690168381</v>
       </c>
       <c r="D65">
-        <v>0.02169775589473123</v>
+        <v>0.03103106536149692</v>
       </c>
       <c r="E65">
-        <v>0.851783268115118</v>
+        <v>0.7843670148578338</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4065,16 +4374,16 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.09050260616749915</v>
+        <v>0.1806119390921563</v>
       </c>
       <c r="C66">
-        <v>0.03231095302510212</v>
+        <v>0.003383042215902335</v>
       </c>
       <c r="D66">
-        <v>0.02096800381153186</v>
+        <v>0.03018428407703609</v>
       </c>
       <c r="E66">
-        <v>0.8562184369958667</v>
+        <v>0.7858207346149049</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4082,16 +4391,16 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.08966463493732575</v>
+        <v>0.1804092219095133</v>
       </c>
       <c r="C67">
-        <v>0.02973811220507626</v>
+        <v>0.003040291988015726</v>
       </c>
       <c r="D67">
-        <v>0.02024772712230413</v>
+        <v>0.02935540636557952</v>
       </c>
       <c r="E67">
-        <v>0.8603495257352938</v>
+        <v>0.7871950797368911</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4099,16 +4408,16 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.08890033921769457</v>
+        <v>0.1802272431013272</v>
       </c>
       <c r="C68">
-        <v>0.0273635678807825</v>
+        <v>0.002732083471925665</v>
       </c>
       <c r="D68">
-        <v>0.01953847002490335</v>
+        <v>0.02854462044161634</v>
       </c>
       <c r="E68">
-        <v>0.8641976228766195</v>
+        <v>0.7884960529851304</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4116,16 +4425,16 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.08820290419380726</v>
+        <v>0.1800638738594805</v>
       </c>
       <c r="C69">
-        <v>0.02517311144282881</v>
+        <v>0.002454971256677837</v>
       </c>
       <c r="D69">
-        <v>0.01884155873584289</v>
+        <v>0.02775203749333387</v>
       </c>
       <c r="E69">
-        <v>0.8677824256275209</v>
+        <v>0.7897291173905073</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4133,16 +4442,16 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.08756619546865854</v>
+        <v>0.179917205277887</v>
       </c>
       <c r="C70">
-        <v>0.023153370698839</v>
+        <v>0.002205846660069053</v>
       </c>
       <c r="D70">
-        <v>0.01815812032183154</v>
+        <v>0.02697770092598528</v>
       </c>
       <c r="E70">
-        <v>0.8711223135106708</v>
+        <v>0.7908992471360583</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4150,16 +4459,16 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.08698468407188599</v>
+        <v>0.1797855253763856</v>
       </c>
       <c r="C71">
-        <v>0.02129179367547289</v>
+        <v>0.001981906181595057</v>
       </c>
       <c r="D71">
-        <v>0.01748910049785515</v>
+        <v>0.02622159468284919</v>
       </c>
       <c r="E71">
-        <v>0.8742344217547858</v>
+        <v>0.7920109737591697</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4167,16 +4476,16 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.08645338064757889</v>
+        <v>0.1796672985738699</v>
       </c>
       <c r="C72">
-        <v>0.01957662542710648</v>
+        <v>0.001780622638687635</v>
       </c>
       <c r="D72">
-        <v>0.01683528036314292</v>
+        <v>0.02548365072554123</v>
       </c>
       <c r="E72">
-        <v>0.8771347135621715</v>
+        <v>0.7930684280619008</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4184,16 +4493,16 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.08596777759343101</v>
+        <v>0.1795611473406991</v>
       </c>
       <c r="C73">
-        <v>0.01799687974051446</v>
+        <v>0.00159971881456485</v>
       </c>
       <c r="D73">
-        <v>0.01619729206821745</v>
+        <v>0.02476375574969858</v>
       </c>
       <c r="E73">
-        <v>0.8798380505978369</v>
+        <v>0.794075378095037</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4201,16 +4510,16 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.08552379809731284</v>
+        <v>0.1794658357917511</v>
       </c>
       <c r="C74">
-        <v>0.01654230726384688</v>
+        <v>0.001437143444118684</v>
       </c>
       <c r="D74">
-        <v>0.01557563342315865</v>
+        <v>0.02406175720640291</v>
       </c>
       <c r="E74">
-        <v>0.8823582612156815</v>
+        <v>0.7950352635577268</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4218,16 +4527,16 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.08511775116608021</v>
+        <v>0.1793802550088975</v>
       </c>
       <c r="C75">
-        <v>0.01520336128834506</v>
+        <v>0.001291049366229358</v>
       </c>
       <c r="D75">
-        <v>0.01497068147010428</v>
+        <v>0.02337746869422197</v>
       </c>
       <c r="E75">
-        <v>0.8847082060754703</v>
+        <v>0.7959512269306506</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4235,16 +4544,16 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.08474629186866182</v>
+        <v>0.1793034099057368</v>
       </c>
       <c r="C76">
-        <v>0.01397116216297549</v>
+        <v>0.001159773675643616</v>
       </c>
       <c r="D76">
-        <v>0.01438270505261033</v>
+        <v>0.02271067478149402</v>
       </c>
       <c r="E76">
-        <v>0.8868998409157522</v>
+        <v>0.7968261416371251</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4252,16 +4561,16 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.08440638612421532</v>
+        <v>0.1792344074685553</v>
       </c>
       <c r="C77">
-        <v>0.01283746111722825</v>
+        <v>0.001041819714240718</v>
       </c>
       <c r="D77">
-        <v>0.01381187642142379</v>
+        <v>0.02206113531349349</v>
       </c>
       <c r="E77">
-        <v>0.8889442763371326</v>
+        <v>0.7976626375037099</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4269,16 +4578,16 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.08409527945906671</v>
+        <v>0.1791724462260849</v>
       </c>
       <c r="C78">
-        <v>0.01179460409870301</v>
+        <v>0.0009358407494803626</v>
       </c>
       <c r="D78">
-        <v>0.01325828192099722</v>
+        <v>0.02142858925442245</v>
       </c>
       <c r="E78">
-        <v>0.890851834521233</v>
+        <v>0.7984631237700117</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4286,16 +4595,16 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.08381046923555519</v>
+        <v>0.1791168068170088</v>
       </c>
       <c r="C79">
-        <v>0.01083549609382911</v>
+        <v>0.0008406251965786655</v>
       </c>
       <c r="D79">
-        <v>0.01272193180412699</v>
+        <v>0.0208127581097833</v>
       </c>
       <c r="E79">
-        <v>0.8926321028664886</v>
+        <v>0.7992298098766286</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4303,16 +4612,16 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.08354967992378264</v>
+        <v>0.179066843538633</v>
       </c>
       <c r="C80">
-        <v>0.009953566287095631</v>
+        <v>0.0007550832501097968</v>
       </c>
       <c r="D80">
-        <v>0.01220276922378009</v>
+        <v>0.02021334897060546</v>
       </c>
       <c r="E80">
-        <v>0.8942939845653416</v>
+        <v>0.7999647242406511</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4320,16 +4629,16 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.08331084104531991</v>
+        <v>0.1790219767729165</v>
       </c>
       <c r="C81">
-        <v>0.009142734322254568</v>
+        <v>0.0006782347999958492</v>
       </c>
       <c r="D81">
-        <v>0.01170067845178048</v>
+        <v>0.01963005721721865</v>
       </c>
       <c r="E81">
-        <v>0.8958457461806449</v>
+        <v>0.8006697312098684</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4337,16 +4646,16 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.08309206746760953</v>
+        <v>0.1789816861973618</v>
       </c>
       <c r="C82">
-        <v>0.008397377854531058</v>
+        <v>0.0006091985160151951</v>
       </c>
       <c r="D82">
-        <v>0.01121549237379417</v>
+        <v>0.01906256891677892</v>
       </c>
       <c r="E82">
-        <v>0.8972950623040652</v>
+        <v>0.8013465463698435</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4354,16 +4663,16 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.08289164177037052</v>
+        <v>0.1789455046982831</v>
       </c>
       <c r="C83">
-        <v>0.007712301522932297</v>
+        <v>0.0005471819938784271</v>
       </c>
       <c r="D83">
-        <v>0.01074699930917943</v>
+        <v>0.01851056294554838</v>
       </c>
       <c r="E83">
-        <v>0.8986490573975177</v>
+        <v>0.8019967503622895</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4371,16 +4680,16 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.08270799844181671</v>
+        <v>0.1789130129128546</v>
       </c>
       <c r="C84">
-        <v>0.007082707423779228</v>
+        <v>0.0004914728644853825</v>
       </c>
       <c r="D84">
-        <v>0.01029494920291445</v>
+        <v>0.01797371286399154</v>
       </c>
       <c r="E84">
-        <v>0.8999143449314895</v>
+        <v>0.8026218013586678</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4388,16 +4697,16 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.08253970969384393</v>
+        <v>0.1788838343342258</v>
       </c>
       <c r="C85">
-        <v>0.006504167128494188</v>
+        <v>0.0004414307761168211</v>
       </c>
       <c r="D85">
-        <v>0.009859059235108733</v>
+        <v>0.01745168857006479</v>
       </c>
       <c r="E85">
-        <v>0.901097063942553</v>
+        <v>0.803223046319592</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4405,16 +4714,16 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.08238547271229069</v>
+        <v>0.1788576309210042</v>
       </c>
       <c r="C86">
-        <v>0.005972595258710695</v>
+        <v>0.0003964801669874198</v>
       </c>
       <c r="D86">
-        <v>0.0094390188916518</v>
+        <v>0.01694415775362388</v>
       </c>
       <c r="E86">
-        <v>0.9022029131373466</v>
+        <v>0.8038017311583839</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4422,16 +4731,16 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.08224409818157948</v>
+        <v>0.1788340991586381</v>
       </c>
       <c r="C87">
-        <v>0.005484224608468517</v>
+        <v>0.0003561037527709552</v>
       </c>
       <c r="D87">
-        <v>0.009034494537436179</v>
+        <v>0.01645078717264208</v>
       </c>
       <c r="E87">
-        <v>0.9032371826725156</v>
+        <v>0.8043590099159482</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4439,16 +4748,16 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.08211449994305342</v>
+        <v>0.1788129665257871</v>
       </c>
       <c r="C88">
-        <v>0.005035582785402878</v>
+        <v>0.0003198366603974668</v>
       </c>
       <c r="D88">
-        <v>0.008645133531379551</v>
+        <v>0.01597124376990156</v>
       </c>
       <c r="E88">
-        <v>0.904204783740164</v>
+        <v>0.8048959530439133</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4456,16 +4765,16 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.08199568566360248</v>
+        <v>0.1787939883237097</v>
       </c>
       <c r="C89">
-        <v>0.004623470329421442</v>
+        <v>0.0002872611456208117</v>
       </c>
       <c r="D89">
-        <v>0.008270567920214343</v>
+        <v>0.01550519564697749</v>
       </c>
       <c r="E89">
-        <v>0.9051102760867616</v>
+        <v>0.8054135548836914</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4473,16 +4782,16 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.08188674840612224</v>
+        <v>0.178776944831115</v>
       </c>
       <c r="C90">
-        <v>0.004244940257549236</v>
+        <v>0.000258001837576537</v>
       </c>
       <c r="D90">
-        <v>0.00791041774575451</v>
+        <v>0.01505231291066355</v>
       </c>
       <c r="E90">
-        <v>0.9059578935905739</v>
+        <v>0.8059127404206443</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4490,16 +4799,16 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.08178685900630275</v>
+        <v>0.1787616387508543</v>
       </c>
       <c r="C91">
-        <v>0.003897278976716103</v>
+        <v>0.0002317214588132997</v>
       </c>
       <c r="D91">
-        <v>0.007564293998119694</v>
+        <v>0.01461226840547348</v>
       </c>
       <c r="E91">
-        <v>0.9067515680188614</v>
+        <v>0.8063943713848584</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4507,16 +4816,16 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.08169525917149076</v>
+        <v>0.1787478929183464</v>
       </c>
       <c r="C92">
-        <v>0.003577988501690475</v>
+        <v>0.0002081169741088202</v>
       </c>
       <c r="D92">
-        <v>0.007231801245220822</v>
+        <v>0.01418473834448411</v>
       </c>
       <c r="E92">
-        <v>0.9074949510815978</v>
+        <v>0.8068592517630601</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4524,16 +4833,16 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.08161125522714989</v>
+        <v>0.1787355482447687</v>
       </c>
       <c r="C93">
-        <v>0.003284769912654079</v>
+        <v>0.0001869161257985547</v>
       </c>
       <c r="D93">
-        <v>0.006912539966706008</v>
+        <v>0.01376940284954736</v>
       </c>
       <c r="E93">
-        <v>0.9081914348934899</v>
+        <v>0.8073081327798848</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4541,16 +4850,16 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.08153421244496585</v>
+        <v>0.1787244618708489</v>
       </c>
       <c r="C94">
-        <v>0.003015507985675241</v>
+        <v>0.0001678743173780511</v>
       </c>
       <c r="D94">
-        <v>0.0066061086185443</v>
+        <v>0.01336594641077999</v>
       </c>
       <c r="E94">
-        <v>0.9088441709508145</v>
+        <v>0.8077417174009924</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4558,16 +4867,16 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.08146354989408329</v>
+        <v>0.1787145055096048</v>
       </c>
       <c r="C95">
-        <v>0.002768256929254157</v>
+        <v>0.000150771810814833</v>
       </c>
       <c r="D95">
-        <v>0.006312105452495845</v>
+        <v>0.01297405827423108</v>
       </c>
       <c r="E95">
-        <v>0.9094560877241665</v>
+        <v>0.8081606644053487</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4575,16 +4884,16 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.08139873576346887</v>
+        <v>0.1787055639586197</v>
       </c>
       <c r="C96">
-        <v>0.002541227160919835</v>
+        <v>0.0001354112063488796</v>
       </c>
       <c r="D96">
-        <v>0.006030130112885934</v>
+        <v>0.01259343276571655</v>
       </c>
       <c r="E96">
-        <v>0.9100299069627252</v>
+        <v>0.8085655920693143</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4592,16 +4901,16 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.08133928310909704</v>
+        <v>0.1786975337644521</v>
       </c>
       <c r="C97">
-        <v>0.002332773059341894</v>
+        <v>0.0001216151765978651</v>
       </c>
       <c r="D97">
-        <v>0.005759785031369927</v>
+        <v>0.01222376955798925</v>
       </c>
       <c r="E97">
-        <v>0.910568158800191</v>
+        <v>0.8089570815009602</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4609,16 +4918,16 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.08128474598466238</v>
+        <v>0.1786903220235738</v>
       </c>
       <c r="C98">
-        <v>0.002141381629407165</v>
+        <v>0.0001092244295388281</v>
       </c>
       <c r="D98">
-        <v>0.005500676638747059</v>
+        <v>0.01186477388767384</v>
       </c>
       <c r="E98">
-        <v>0.9110731957471833</v>
+        <v>0.809335679659213</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4626,16 +4935,16 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.08123471591892699</v>
+        <v>0.178683845305842</v>
       </c>
       <c r="C99">
-        <v>0.001965662020060475</v>
+        <v>9.809587743515771E-05</v>
       </c>
       <c r="D99">
-        <v>0.005252416411352844</v>
+        <v>0.01151615672772979</v>
       </c>
       <c r="E99">
-        <v>0.9115472056496595</v>
+        <v>0.8097019020889925</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4643,16 +4952,16 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.08118881870669314</v>
+        <v>0.1786780286879526</v>
       </c>
       <c r="C100">
-        <v>0.001804335837307722</v>
+        <v>8.810099103869818E-05</v>
       </c>
       <c r="D100">
-        <v>0.005014621768130286</v>
+        <v>0.01117763492060629</v>
       </c>
       <c r="E100">
-        <v>0.9119922236878687</v>
+        <v>0.8100562354004019</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4660,16 +4969,16 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.08114671148382048</v>
+        <v>0.1786728048856122</v>
       </c>
       <c r="C101">
-        <v>0.001656228197536757</v>
+        <v>7.912432044194663E-05</v>
       </c>
       <c r="D101">
-        <v>0.004786916833146472</v>
+        <v>0.01084893127671379</v>
       </c>
       <c r="E101">
-        <v>0.9124101434854961</v>
+        <v>0.8103991395172316</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4677,16 +4986,16 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.08110808005973941</v>
+        <v>0.1786681134743275</v>
       </c>
       <c r="C102">
-        <v>0.00152025946915551</v>
+        <v>7.106216580391089E-05</v>
       </c>
       <c r="D102">
-        <v>0.004568933077079954</v>
+        <v>0.01052977464235166</v>
       </c>
       <c r="E102">
-        <v>0.9128027273940249</v>
+        <v>0.8107310497175164</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4694,16 +5003,16 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.08107263648360111</v>
+        <v>0.1786639001897459</v>
       </c>
       <c r="C103">
-        <v>0.001395437653420452</v>
+        <v>6.382138284295323E-05</v>
       </c>
       <c r="D103">
-        <v>0.004360309850051577</v>
+        <v>0.01021989994079543</v>
       </c>
       <c r="E103">
-        <v>0.9131716160129266</v>
+        <v>0.8110523784866152</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4711,16 +5020,16 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.08104011682259164</v>
+        <v>0.178660116299412</v>
       </c>
       <c r="C104">
-        <v>0.001280851358187711</v>
+        <v>5.731830949724707E-05</v>
       </c>
       <c r="D104">
-        <v>0.004160694817102884</v>
+        <v>0.009919048189855333</v>
       </c>
       <c r="E104">
-        <v>0.9135183370021175</v>
+        <v>0.8113635172012349</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4728,16 +5037,16 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.08101027913306123</v>
+        <v>0.1786567180386407</v>
       </c>
       <c r="C105">
-        <v>0.001175663321129948</v>
+        <v>5.147780151338882E-05</v>
       </c>
       <c r="D105">
-        <v>0.003969744306637506</v>
+        <v>0.009626966498865342</v>
       </c>
       <c r="E105">
-        <v>0.913844313239171</v>
+        <v>0.8116648376609801</v>
       </c>
     </row>
   </sheetData>

--- a/arch/SIQR.xlsx
+++ b/arch/SIQR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,10 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.93</t>
+    <t>0.9902</t>
   </si>
   <si>
-    <t>0.05</t>
+    <t>0.0056</t>
+  </si>
+  <si>
+    <t>0.0042</t>
   </si>
   <si>
     <t>0.01</t>
@@ -67,10 +70,10 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>0.0841</t>
   </si>
   <si>
-    <t>0.15</t>
+    <t>0.0259</t>
   </si>
   <si>
     <t>0.02</t>
@@ -538,307 +541,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.9902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9125747193263831</c:v>
+                  <c:v>0.9897249479649896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8927537424199887</c:v>
+                  <c:v>0.9892320653875246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8704353093896546</c:v>
+                  <c:v>0.9887207137268057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8455875424323166</c:v>
+                  <c:v>0.9881902339618786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8182663422869153</c:v>
+                  <c:v>0.9876399461223244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.788628977352932</c:v>
+                  <c:v>0.9870691488238326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7569401917941152</c:v>
+                  <c:v>0.9864771188103291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7235682125526631</c:v>
+                  <c:v>0.9858631105044838</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6889694287357681</c:v>
+                  <c:v>0.985226355568567</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6536625500340415</c:v>
+                  <c:v>0.9845660624777853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6181952158948621</c:v>
+                  <c:v>0.9838814161083982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5831076629647063</c:v>
+                  <c:v>0.9831715773430835</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5488986230678574</c:v>
+                  <c:v>0.9824356826962127</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.515997944278708</c:v>
+                  <c:v>0.9816728439618778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4847487748529581</c:v>
+                  <c:v>0.9808821478877144</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.455400099117923</c:v>
+                  <c:v>0.9800626558777692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4281085787290426</c:v>
+                  <c:v>0.9792134037278677</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4029474469011021</c:v>
+                  <c:v>0.97833340139716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3799197478701675</c:v>
+                  <c:v>0.9774216328197386</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.358973383656457</c:v>
+                  <c:v>0.9764770557604542</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3400159782608734</c:v>
+                  <c:v>0.97549860171928</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3229282471530686</c:v>
+                  <c:v>0.9744851758888119</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3075751877860817</c:v>
+                  <c:v>0.9734356571697209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2938148920950686</c:v>
+                  <c:v>0.972348898249211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2815051021178285</c:v>
+                  <c:v>0.9712237257477606</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2705078050677147</c:v>
+                  <c:v>0.9700589404396577</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2606922318494544</c:v>
+                  <c:v>0.9688533175530524</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2519366215501028</c:v>
+                  <c:v>0.9676056071554665</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2441290751982828</c:v>
+                  <c:v>0.9663145346308946</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2371677671132531</c:v>
+                  <c:v>0.9649788012548175</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2309607251175018</c:v>
+                  <c:v>0.9635970848736152</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2254253390805045</c:v>
+                  <c:v>0.9621680406950095</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2204877137908649</c:v>
+                  <c:v>0.9606903021962896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2160819475984618</c:v>
+                  <c:v>0.959162482157159</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.212149391895417</c:v>
+                  <c:v>0.9575831738241025</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2086379270341258</c:v>
+                  <c:v>0.9559509522131857</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.2055012763201621</c:v>
+                  <c:v>0.9542643755581752</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2026983699850649</c:v>
+                  <c:v>0.9525219869107912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2001927644561321</c:v>
+                  <c:v>0.950722315899773</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1979521179323923</c:v>
+                  <c:v>0.9488638806552501</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1959477205829716</c:v>
+                  <c:v>0.9469451899046529</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1941540761096836</c:v>
+                  <c:v>0.9449647452460711</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1925485305977619</c:v>
+                  <c:v>0.9429210436045607</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1911109442584184</c:v>
+                  <c:v>0.9408125798764136</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1898234016627388</c:v>
+                  <c:v>0.9386378497658221</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1886699562531835</c:v>
+                  <c:v>0.9363953528177019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1876364052121319</c:v>
+                  <c:v>0.9340835956496614</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1867100911106468</c:v>
+                  <c:v>0.9317010953852298</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1858797271191548</c:v>
+                  <c:v>0.9292463832894716</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1851352429129379</c:v>
+                  <c:v>0.9267180086070163</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1844676487364121</c:v>
+                  <c:v>0.9241145426013252</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1838689153944548</c:v>
+                  <c:v>0.9214345827926882</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1833318682138351</c:v>
+                  <c:v>0.9186767573910035</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1828500932628677</c:v>
+                  <c:v>0.9158397299178399</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1824178543340234</c:v>
+                  <c:v>0.9129222040106139</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.182030019384433</c:v>
+                  <c:v>0.9099229283999436</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1816819952954797</c:v>
+                  <c:v>0.9068407020493698</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.181369669957527</c:v>
+                  <c:v>0.903674379444673</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1810893608117635</c:v>
+                  <c:v>0.9004228760179738</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1808377690905004</c:v>
+                  <c:v>0.8970851736896968</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1806119390921563</c:v>
+                  <c:v>0.8936603265093177</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1804092219095133</c:v>
+                  <c:v>0.8901474663736251</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1802272431013272</c:v>
+                  <c:v>0.8865458087990217</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1800638738594805</c:v>
+                  <c:v>0.8828546587222019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.179917205277887</c:v>
+                  <c:v>0.8790734163013854</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1797855253763856</c:v>
+                  <c:v>0.8752015826881957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1796672985738699</c:v>
+                  <c:v>0.8712387657382812</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1795611473406991</c:v>
+                  <c:v>0.8671846856269003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1794658357917511</c:v>
+                  <c:v>0.8630391803339896</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1793802550088975</c:v>
+                  <c:v>0.8588022109617107</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1793034099057368</c:v>
+                  <c:v>0.8544738668461874</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1792344074685553</c:v>
+                  <c:v>0.8500543704241178</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1791724462260849</c:v>
+                  <c:v>0.8455440818142156</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1791168068170088</c:v>
+                  <c:v>0.8409435030730392</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.179066843538633</c:v>
+                  <c:v>0.8362532820847264</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1790219767729165</c:v>
+                  <c:v>0.8314742160445034</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1789816861973618</c:v>
+                  <c:v>0.8266072544966043</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1789455046982831</c:v>
+                  <c:v>0.8216535018884311</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1789130129128546</c:v>
+                  <c:v>0.8166142196044367</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1788838343342258</c:v>
+                  <c:v>0.81149082744532</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1788576309210042</c:v>
+                  <c:v>0.806284904520692</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1788340991586381</c:v>
+                  <c:v>0.8009981895264046</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1788129665257871</c:v>
+                  <c:v>0.7956325803812121</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1787939883237097</c:v>
+                  <c:v>0.7901901332013473</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.178776944831115</c:v>
+                  <c:v>0.7846730605959064</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1787616387508543</c:v>
+                  <c:v>0.7790837292706236</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.1787478929183464</c:v>
+                  <c:v>0.7734246569326302</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.1787355482447687</c:v>
+                  <c:v>0.7676985084940793</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.1787244618708489</c:v>
+                  <c:v>0.761908091578039</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.1787145055096048</c:v>
+                  <c:v>0.7560563513357239</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.1787055639586197</c:v>
+                  <c:v>0.7501463645899049</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1786975337644521</c:v>
+                  <c:v>0.7441813333251224</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.1786903220235738</c:v>
+                  <c:v>0.7381645775510596</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.178683845305842</c:v>
+                  <c:v>0.7320995275710328</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1786780286879526</c:v>
+                  <c:v>0.7259897156929457</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.1786728048856122</c:v>
+                  <c:v>0.7198387674251632</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.1786681134743275</c:v>
+                  <c:v>0.7136503922045084</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.1786639001897459</c:v>
+                  <c:v>0.707428373707911</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.178660116299412</c:v>
+                  <c:v>0.7011765598030659</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.1786567180386407</c:v>
+                  <c:v>0.6948988521967534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,307 +1183,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.0056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05823817038158809</c:v>
+                  <c:v>0.005813149833646987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06739324586660886</c:v>
+                  <c:v>0.006034167097547603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07741467643610569</c:v>
+                  <c:v>0.006263323022522396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08819530272184523</c:v>
+                  <c:v>0.00650089669029797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09956378391935773</c:v>
+                  <c:v>0.006747175139981654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1112822119611253</c:v>
+                  <c:v>0.007002453464982718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1230510177561852</c:v>
+                  <c:v>0.007267034899169713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1345224261729474</c:v>
+                  <c:v>0.00754123089096723</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1453222281703822</c:v>
+                  <c:v>0.007825361164005376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1550777994016463</c:v>
+                  <c:v>0.008119753762841764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1634486298617708</c:v>
+                  <c:v>0.008424745082178834</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1701547197909824</c:v>
+                  <c:v>0.008740679877899114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1749984197964574</c:v>
+                  <c:v>0.009067911258137809</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.177876624781569</c:v>
+                  <c:v>0.009406800652506158</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1787822436065545</c:v>
+                  <c:v>0.009757717757470707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1777959217549894</c:v>
+                  <c:v>0.01012104045578345</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1750705235901465</c:v>
+                  <c:v>0.01049715470774616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1708115882407128</c:v>
+                  <c:v>0.01088645441197989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1652568801203139</c:v>
+                  <c:v>0.01128934123325805</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1586575043623235</c:v>
+                  <c:v>0.01170622439484982</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1512621640301026</c:v>
+                  <c:v>0.01213752043271049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1433052658402264</c:v>
+                  <c:v>0.01258365290874797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1349988946509031</c:v>
+                  <c:v>0.01304505208029107</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1265282296935782</c:v>
+                  <c:v>0.01352215452278695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1180497499141538</c:v>
+                  <c:v>0.01401540270266351</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1096915183686923</c:v>
+                  <c:v>0.0145252444972089</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1015548855468262</c:v>
+                  <c:v>0.01505213265824716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0937170567183198</c:v>
+                  <c:v>0.0155965242163279</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.08623409156611868</c:v>
+                  <c:v>0.01615887982210035</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0791440225201062</c:v>
+                  <c:v>0.01673966302151186</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.07246987966223188</c:v>
+                  <c:v>0.0173393394614589</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.06622249078419037</c:v>
+                  <c:v>0.01795837602252855</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.06040298558455542</c:v>
+                  <c:v>0.01859723987550248</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.05500497575898462</c:v>
+                  <c:v>0.01925639745835723</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.05001641130701576</c:v>
+                  <c:v>0.01993631337058649</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.04542113115297557</c:v>
+                  <c:v>0.02063744918179681</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.04120013612429477</c:v>
+                  <c:v>0.02136026215169138</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.03733261684913241</c:v>
+                  <c:v>0.02210520385875985</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.03379677006797036</c:v>
+                  <c:v>0.02287271873523999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0305704355540467</c:v>
+                  <c:v>0.02366324250621226</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.02763158326323405</c:v>
+                  <c:v>0.02447720053103507</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.02495867713904831</c:v>
+                  <c:v>0.0253150060457294</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.02253093861135474</c:v>
+                  <c:v>0.02617705830538108</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.02032852951490802</c:v>
+                  <c:v>0.02706374062614849</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.01833267107059592</c:v>
+                  <c:v>0.02797541832704817</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.01652571279676759</c:v>
+                  <c:v>0.02891243657234039</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0148911627794926</c:v>
+                  <c:v>0.02987511811605594</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.01341368862735993</c:v>
+                  <c:v>0.03086376095099311</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.01207909664878477</c:v>
+                  <c:v>0.03187863586537308</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.01087429528856596</c:v>
+                  <c:v>0.03291998391127089</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.009787247612532902</c:v>
+                  <c:v>0.03398801378993824</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.008806916601004907</c:v>
+                  <c:v>0.0350828991602011</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.00792320617154302</c:v>
+                  <c:v>0.03620477587724605</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.007126900169912551</c:v>
+                  <c:v>0.0373537391703017</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.006409601019318046</c:v>
+                  <c:v>0.0385298407689677</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.00576366927916719</c:v>
+                  <c:v>0.03973308598923836</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.005182165016410145</c:v>
+                  <c:v>0.04096343079160143</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.004658791618378322</c:v>
+                  <c:v>0.04222077882495483</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.004187842462142574</c:v>
+                  <c:v>0.04350497847146305</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.003764150690168381</c:v>
+                  <c:v>0.04481581990885696</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.003383042215902335</c:v>
+                  <c:v>0.04615303220805069</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.003040291988015726</c:v>
+                  <c:v>0.04751628048528857</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.002732083471925665</c:v>
+                  <c:v>0.04890516312932683</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.002454971256677837</c:v>
+                  <c:v>0.05031920912537674</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.002205846660069053</c:v>
+                  <c:v>0.05175787549866705</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.001981906181595057</c:v>
+                  <c:v>0.05322054490150067</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.001780622638687635</c:v>
+                  <c:v>0.05470652336855969</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.00159971881456485</c:v>
+                  <c:v>0.05621503826592845</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.001437143444118684</c:v>
+                  <c:v>0.05774523645983302</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.001291049366229358</c:v>
+                  <c:v>0.05929618273141007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.001159773675643616</c:v>
+                  <c:v>0.06086685846389672</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.001041819714240718</c:v>
+                  <c:v>0.06245616062844972</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0009358407494803626</c:v>
+                  <c:v>0.0640629010943384</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0008406251965786655</c:v>
+                  <c:v>0.06568580628848868</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0007550832501097968</c:v>
+                  <c:v>0.06732351722827123</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0006782347999958492</c:v>
+                  <c:v>0.0689745899500107</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0006091985160151951</c:v>
+                  <c:v>0.07063749635393514</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0005471819938784271</c:v>
+                  <c:v>0.07231062548418292</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0004914728644853825</c:v>
+                  <c:v>0.07399228526003561</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0004414307761168211</c:v>
+                  <c:v>0.07568070467175832</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0003964801669874198</c:v>
+                  <c:v>0.07737403645131392</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0003561037527709552</c:v>
+                  <c:v>0.07907036022479294</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0003198366603974668</c:v>
+                  <c:v>0.08076768614969114</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0002872611456208117</c:v>
+                  <c:v>0.08246395903620295</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.000258001837576537</c:v>
+                  <c:v>0.08415706294751749</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0002317214588132997</c:v>
+                  <c:v>0.0858448262697486</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0002081169741088202</c:v>
+                  <c:v>0.08752502723765017</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0001869161257985547</c:v>
+                  <c:v>0.08919539989771623</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0001678743173780511</c:v>
+                  <c:v>0.0908536404857007</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.000150771810814833</c:v>
+                  <c:v>0.09249741419107582</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0001354112063488796</c:v>
+                  <c:v>0.09412436227654516</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0001216151765978651</c:v>
+                  <c:v>0.09573210951650182</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0001092244295388281</c:v>
+                  <c:v>0.09731827191434105</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.809587743515771e-05</c:v>
+                  <c:v>0.09888046465486232</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.810099103869818e-05</c:v>
+                  <c:v>0.1004163102446907</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.912432044194663e-05</c:v>
+                  <c:v>0.1019234467907692</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.106216580391089e-05</c:v>
+                  <c:v>0.103399536364573</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.382138284295323e-05</c:v>
+                  <c:v>0.104842273397823</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.731830949724707e-05</c:v>
+                  <c:v>0.1062493930541615</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.147780151338882e-05</c:v>
+                  <c:v>0.1076186795205354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,304 +1828,304 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01076964649729887</c:v>
+                  <c:v>0.009816889654297898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01168798335810103</c:v>
+                  <c:v>0.009643468177972396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01276826630786363</c:v>
+                  <c:v>0.009479606906051138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01402181820933189</c:v>
+                  <c:v>0.009325186397788936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01545688922495923</c:v>
+                  <c:v>0.009180096319805807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01707744905532788</c:v>
+                  <c:v>0.009044235334683997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01888203713014931</c:v>
+                  <c:v>0.008917510994662594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02086282711736636</c:v>
+                  <c:v>0.008799839640054281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02300506840117185</c:v>
+                  <c:v>0.00869114630199347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02528703978472109</c:v>
+                  <c:v>0.008591364609108363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02768058860902156</c:v>
+                  <c:v>0.008500436697691377</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03015224207937676</c:v>
+                  <c:v>0.008418313124922938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.03266478672093041</c:v>
+                  <c:v>0.008344952784682691</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03517913946906306</c:v>
+                  <c:v>0.008280322825459817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03765629754362666</c:v>
+                  <c:v>0.008224398569850381</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.04005916010361803</c:v>
+                  <c:v>0.008177163435104336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.04235405638098286</c:v>
+                  <c:v>0.0081386088541581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.04451187767014442</c:v>
+                  <c:v>0.00810873419656058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04650877713663822</c:v>
+                  <c:v>0.008087546688670913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04832645817912883</c:v>
+                  <c:v>0.008075061332475439</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04995211144995904</c:v>
+                  <c:v>0.008071300822339263</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.05137808111940999</c:v>
+                  <c:v>0.008076295458974442</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.05260134534624704</c:v>
+                  <c:v>0.008090083059872482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05362288898586287</c:v>
+                  <c:v>0.008112708865413366</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.05444703328943768</c:v>
+                  <c:v>0.008144225439827209</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.05508077178113025</c:v>
+                  <c:v>0.008184692566147711</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.05553314642048058</c:v>
+                  <c:v>0.008234177134259278</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.05581468512804853</c:v>
+                  <c:v>0.008292753021102153</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.05593691140803224</c:v>
+                  <c:v>0.00836050096206235</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.05591192916770132</c:v>
+                  <c:v>0.00843750841253604</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.05575208059990245</c:v>
+                  <c:v>0.008523869398621545</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.05546967171191273</c:v>
+                  <c:v>0.008619684355856656</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.055076758284188</c:v>
+                  <c:v>0.008725059954885005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.05458498430628179</c:v>
+                  <c:v>0.008840108912903263</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.05400546491902248</c:v>
+                  <c:v>0.008964949789711303</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.05334870632512942</c:v>
+                  <c:v>0.009099706767160983</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.05262455581901946</c:v>
+                  <c:v>0.009244509410776239</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.05184217589353388</c:v>
+                  <c:v>0.009399492412298574</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.05101003721536921</c:v>
+                  <c:v>0.009564795311898381</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.05013592606479744</c:v>
+                  <c:v>0.009740562198784613</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.04922696257577562</c:v>
+                  <c:v>0.009926941388944031</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.04828962677343554</c:v>
+                  <c:v>0.01012408507874727</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.04732978998189256</c:v>
+                  <c:v>0.01033214897317336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0463527496679055</c:v>
+                  <c:v>0.0105512918874279</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.04536326620077415</c:v>
+                  <c:v>0.01078167532076385</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.04436560035366854</c:v>
+                  <c:v>0.01102346300135877</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.04336355065483306</c:v>
+                  <c:v>0.01127682040115957</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.04236048992727906</c:v>
+                  <c:v>0.01154191421967587</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.04135940054067389</c:v>
+                  <c:v>0.01181891183578753</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.04036290804642445</c:v>
+                  <c:v>0.0121079807267316</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.03937331298287474</c:v>
+                  <c:v>0.01240928785354918</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.03839262072767557</c:v>
+                  <c:v>0.0127229990124055</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.03742256934351239</c:v>
+                  <c:v>0.01304927815134659</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03646465541552302</c:v>
+                  <c:v>0.01338828665222484</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.03552015791726734</c:v>
+                  <c:v>0.01374018257771315</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.03459016016981173</c:v>
+                  <c:v>0.01410511988353516</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.03367556997765457</c:v>
+                  <c:v>0.01448324759626561</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.03277713803771317</c:v>
+                  <c:v>0.014874708957302</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.03189547472493406</c:v>
+                  <c:v>0.01527964053387551</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.03103106536149692</c:v>
+                  <c:v>0.01569817129825478</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.03018428407703609</c:v>
+                  <c:v>0.01613042167660112</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.02935540636557952</c:v>
+                  <c:v>0.01657650256925602</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.02854462044161634</c:v>
+                  <c:v>0.01703651434458045</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.02775203749333387</c:v>
+                  <c:v>0.01751054580881948</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.02697770092598528</c:v>
+                  <c:v>0.01799867315483143</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.02622159468284919</c:v>
+                  <c:v>0.01850095889289826</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.02548365072554123</c:v>
+                  <c:v>0.01901745076721752</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.02476375574969858</c:v>
+                  <c:v>0.01954818066206531</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.02406175720640291</c:v>
+                  <c:v>0.020093163502009</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.02337746869422197</c:v>
+                  <c:v>0.02065239615093485</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.02271067478149402</c:v>
+                  <c:v>0.0212258563150344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.02206113531349349</c:v>
+                  <c:v>0.02181350145526021</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.02142858925442245</c:v>
+                  <c:v>0.02241526771511083</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0208127581097833</c:v>
+                  <c:v>0.02303106886993181</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.02021334897060546</c:v>
+                  <c:v>0.02366079530421894</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.01963005721721865</c:v>
+                  <c:v>0.02430431302367503</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01906256891677892</c:v>
+                  <c:v>0.02496146270899852</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.01851056294554838</c:v>
+                  <c:v>0.02563205881856356</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.01797371286399154</c:v>
+                  <c:v>0.02631588874728302</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.01745168857006479</c:v>
+                  <c:v>0.02701271204902173</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.01694415775362388</c:v>
+                  <c:v>0.02772225972994303</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.01645078717264208</c:v>
+                  <c:v>0.02844423362012208</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.01597124376990156</c:v>
+                  <c:v>0.0291783058306416</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.01550519564697749</c:v>
+                  <c:v>0.02992411830319481</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.01505231291066355</c:v>
+                  <c:v>0.03068128245895568</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.01461226840547348</c:v>
+                  <c:v>0.03144937895313493</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.01418473834448411</c:v>
+                  <c:v>0.03222795754122174</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.01376940284954736</c:v>
+                  <c:v>0.03301653706241608</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.01336594641077999</c:v>
+                  <c:v>0.0338146055451861</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.01297405827423108</c:v>
+                  <c:v>0.03462162043924154</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.01259343276571655</c:v>
+                  <c:v>0.03543700897750264</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.01222376955798925</c:v>
+                  <c:v>0.03626016867086708</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01186477388767384</c:v>
+                  <c:v>0.03709046793774409</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01151615672772979</c:v>
+                  <c:v>0.03792724686943915</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.01117763492060629</c:v>
+                  <c:v>0.03876981813154558</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.01084893127671379</c:v>
+                  <c:v>0.03961746800053749</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.01052977464235166</c:v>
+                  <c:v>0.04046945753377418</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.01021989994079543</c:v>
+                  <c:v>0.04132502387012771</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.009919048189855333</c:v>
+                  <c:v>0.04218338165744552</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.009626966498865342</c:v>
+                  <c:v>0.04304372460206991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,307 +2467,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.0042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01841746379472997</c:v>
+                  <c:v>0.004645012547065522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02816502835530147</c:v>
+                  <c:v>0.005090299336955341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03938174786637615</c:v>
+                  <c:v>0.005536356344620675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05219533663650633</c:v>
+                  <c:v>0.0059836829500345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06671298456876774</c:v>
+                  <c:v>0.006432782417888031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08301136163061487</c:v>
+                  <c:v>0.006884162376500634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1011267533195503</c:v>
+                  <c:v>0.007338335295838583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1210465341570231</c:v>
+                  <c:v>0.007795818964494652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.142703274692678</c:v>
+                  <c:v>0.008257136965434217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1659726107795912</c:v>
+                  <c:v>0.008722819150264521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1906755656343455</c:v>
+                  <c:v>0.009193402111731636</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2165853751649345</c:v>
+                  <c:v>0.009669429654094478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2434381704147547</c:v>
+                  <c:v>0.0101514532609668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2709462914706598</c:v>
+                  <c:v>0.01064003256015626</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2988126839968607</c:v>
+                  <c:v>0.01113573578496448</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3267448190234695</c:v>
+                  <c:v>0.01163914023134304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3544668412998279</c:v>
+                  <c:v>0.01215083271022805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3817290871880406</c:v>
+                  <c:v>0.01267140999429962</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4083145948728802</c:v>
+                  <c:v>0.0132014792583325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4340426538020905</c:v>
+                  <c:v>0.01374165851222061</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4587697462590647</c:v>
+                  <c:v>0.01429257702567028</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4823884058872949</c:v>
+                  <c:v>0.01485487574346579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.504824572216768</c:v>
+                  <c:v>0.01542920769011562</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5260339892254902</c:v>
+                  <c:v>0.0160162383625888</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5459981146785797</c:v>
+                  <c:v>0.01661664610974875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5647199047824625</c:v>
+                  <c:v>0.01723112249698584</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5822197361832385</c:v>
+                  <c:v>0.01786037265444136</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5985316366035286</c:v>
+                  <c:v>0.01850511560710365</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6136999218275659</c:v>
+                  <c:v>0.0191660845849429</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.627776281198939</c:v>
+                  <c:v>0.01984402731113472</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6408173146203635</c:v>
+                  <c:v>0.0205397062663045</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6528824984233921</c:v>
+                  <c:v>0.02125389892660539</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6640325423403914</c:v>
+                  <c:v>0.02198739797332299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6743280923362716</c:v>
+                  <c:v>0.0227410114715805</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6838287318785445</c:v>
+                  <c:v>0.02351556301559968</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6925922354877689</c:v>
+                  <c:v>0.02431189183785653</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.7006740317365234</c:v>
+                  <c:v>0.02513085287935719</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.7081268372722687</c:v>
+                  <c:v>0.02597331681815041</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.7150004282605281</c:v>
+                  <c:v>0.02684017005308864</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7213415204487633</c:v>
+                  <c:v>0.02773231463975301</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7271937335780185</c:v>
+                  <c:v>0.02865066817536797</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.7325976199778323</c:v>
+                  <c:v>0.02959616362945225</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7375907408089907</c:v>
+                  <c:v>0.03056974911688483</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.7422077765587679</c:v>
+                  <c:v>0.03157238761000997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7464806610658911</c:v>
+                  <c:v>0.03260505658636587</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7504387305963802</c:v>
+                  <c:v>0.03366874760859895</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7541088813535423</c:v>
+                  <c:v>0.03476446583312313</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7575157303347141</c:v>
+                  <c:v>0.0358932294441012</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.7606817756913864</c:v>
+                  <c:v>0.03705606900936782</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.7636275537520715</c:v>
+                  <c:v>0.0382540267549813</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7663717906681801</c:v>
+                  <c:v>0.03948815575518742</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.7689315472768644</c:v>
+                  <c:v>0.04075951903470525</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.7713223562711092</c:v>
+                  <c:v>0.04206918858040393</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.7735583511516965</c:v>
+                  <c:v>0.04341824425963366</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.775652386729391</c:v>
+                  <c:v>0.04480777264270538</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.7776161511665878</c:v>
+                  <c:v>0.04623886572728299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.7794602697104552</c:v>
+                  <c:v>0.04771261956276326</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.7811944003863811</c:v>
+                  <c:v>0.04923013277307029</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7828273220011595</c:v>
+                  <c:v>0.05079250497668775</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.7843670148578338</c:v>
+                  <c:v>0.05240083510319159</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.7858207346149049</c:v>
+                  <c:v>0.05405621960603055</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.7871950797368911</c:v>
+                  <c:v>0.0557597505718304</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7884960529851304</c:v>
+                  <c:v>0.05751251372707111</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.7897291173905073</c:v>
+                  <c:v>0.05931558634360189</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.7908992471360583</c:v>
+                  <c:v>0.06117003504511619</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.7920109737591697</c:v>
+                  <c:v>0.06307691351740535</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.7930684280619008</c:v>
+                  <c:v>0.06503726012594163</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.794075378095037</c:v>
+                  <c:v>0.06705209544510593</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7950352635577268</c:v>
+                  <c:v>0.06912241970416835</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.7959512269306506</c:v>
+                  <c:v>0.07124921015594438</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7968261416371251</c:v>
+                  <c:v>0.07343341837488145</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.7976626375037099</c:v>
+                  <c:v>0.07567596749217227</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.7984631237700117</c:v>
+                  <c:v>0.07797774937633521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.7992298098766286</c:v>
+                  <c:v>0.08033962176854033</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.7999647242406511</c:v>
+                  <c:v>0.08276240538278352</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8006697312098684</c:v>
+                  <c:v>0.08524688098181094</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8013465463698435</c:v>
+                  <c:v>0.0877937864404621</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8019967503622895</c:v>
+                  <c:v>0.09040381380882254</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8026218013586678</c:v>
+                  <c:v>0.09307760638824479</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.803223046319592</c:v>
+                  <c:v>0.09581575583390005</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8038017311583839</c:v>
+                  <c:v>0.09861879929805113</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8043590099159482</c:v>
+                  <c:v>0.1014872166286805</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8048959530439133</c:v>
+                  <c:v>0.1044214276384552</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.8054135548836914</c:v>
+                  <c:v>0.1074217894592549</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8059127404206443</c:v>
+                  <c:v>0.1104885939976205</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8063943713848584</c:v>
+                  <c:v>0.1136220655064929</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8068592517630601</c:v>
+                  <c:v>0.116822358288498</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8073081327798848</c:v>
+                  <c:v>0.1200895545457885</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.8077417174009924</c:v>
+                  <c:v>0.1234236623910743</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8081606644053487</c:v>
+                  <c:v>0.1268246140339588</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.8085655920693143</c:v>
+                  <c:v>0.1302922641560474</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.8089570815009602</c:v>
+                  <c:v>0.1338263884875089</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.809335679659213</c:v>
+                  <c:v>0.1374266825968555</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8097019020889925</c:v>
+                  <c:v>0.141092760904666</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.8100562354004019</c:v>
+                  <c:v>0.1448241559308183</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.8103991395172316</c:v>
+                  <c:v>0.1486203177835304</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.8107310497175164</c:v>
+                  <c:v>0.1524806138971447</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.8110523784866152</c:v>
+                  <c:v>0.1564043290241386</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.8113635172012349</c:v>
+                  <c:v>0.1603906654853274</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.8116648376609801</c:v>
+                  <c:v>0.1644387436806417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3251,39 +3254,39 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3301,35 +3304,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3337,16 +3340,16 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.93</v>
+        <v>0.9902</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.0056</v>
       </c>
       <c r="D5">
         <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3354,16 +3357,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.9125747193263831</v>
+        <v>0.9897249479649896</v>
       </c>
       <c r="C6">
-        <v>0.05823817038158809</v>
+        <v>0.005813149833646987</v>
       </c>
       <c r="D6">
-        <v>0.01076964649729887</v>
+        <v>0.009816889654297898</v>
       </c>
       <c r="E6">
-        <v>0.01841746379472997</v>
+        <v>0.004645012547065522</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3371,16 +3374,16 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.8927537424199887</v>
+        <v>0.9892320653875246</v>
       </c>
       <c r="C7">
-        <v>0.06739324586660886</v>
+        <v>0.006034167097547603</v>
       </c>
       <c r="D7">
-        <v>0.01168798335810103</v>
+        <v>0.009643468177972396</v>
       </c>
       <c r="E7">
-        <v>0.02816502835530147</v>
+        <v>0.005090299336955341</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3388,16 +3391,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.8704353093896546</v>
+        <v>0.9887207137268057</v>
       </c>
       <c r="C8">
-        <v>0.07741467643610569</v>
+        <v>0.006263323022522396</v>
       </c>
       <c r="D8">
-        <v>0.01276826630786363</v>
+        <v>0.009479606906051138</v>
       </c>
       <c r="E8">
-        <v>0.03938174786637615</v>
+        <v>0.005536356344620675</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3405,16 +3408,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8455875424323166</v>
+        <v>0.9881902339618786</v>
       </c>
       <c r="C9">
-        <v>0.08819530272184523</v>
+        <v>0.00650089669029797</v>
       </c>
       <c r="D9">
-        <v>0.01402181820933189</v>
+        <v>0.009325186397788936</v>
       </c>
       <c r="E9">
-        <v>0.05219533663650633</v>
+        <v>0.0059836829500345</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3422,16 +3425,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.8182663422869153</v>
+        <v>0.9876399461223244</v>
       </c>
       <c r="C10">
-        <v>0.09956378391935773</v>
+        <v>0.006747175139981654</v>
       </c>
       <c r="D10">
-        <v>0.01545688922495923</v>
+        <v>0.009180096319805807</v>
       </c>
       <c r="E10">
-        <v>0.06671298456876774</v>
+        <v>0.006432782417888031</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3439,16 +3442,16 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.788628977352932</v>
+        <v>0.9870691488238326</v>
       </c>
       <c r="C11">
-        <v>0.1112822119611253</v>
+        <v>0.007002453464982718</v>
       </c>
       <c r="D11">
-        <v>0.01707744905532788</v>
+        <v>0.009044235334683997</v>
       </c>
       <c r="E11">
-        <v>0.08301136163061487</v>
+        <v>0.006884162376500634</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3456,16 +3459,16 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.7569401917941152</v>
+        <v>0.9864771188103291</v>
       </c>
       <c r="C12">
-        <v>0.1230510177561852</v>
+        <v>0.007267034899169713</v>
       </c>
       <c r="D12">
-        <v>0.01888203713014931</v>
+        <v>0.008917510994662594</v>
       </c>
       <c r="E12">
-        <v>0.1011267533195503</v>
+        <v>0.007338335295838583</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3473,16 +3476,16 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.7235682125526631</v>
+        <v>0.9858631105044838</v>
       </c>
       <c r="C13">
-        <v>0.1345224261729474</v>
+        <v>0.00754123089096723</v>
       </c>
       <c r="D13">
-        <v>0.02086282711736636</v>
+        <v>0.008799839640054281</v>
       </c>
       <c r="E13">
-        <v>0.1210465341570231</v>
+        <v>0.007795818964494652</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3490,16 +3493,16 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.6889694287357681</v>
+        <v>0.985226355568567</v>
       </c>
       <c r="C14">
-        <v>0.1453222281703822</v>
+        <v>0.007825361164005376</v>
       </c>
       <c r="D14">
-        <v>0.02300506840117185</v>
+        <v>0.00869114630199347</v>
       </c>
       <c r="E14">
-        <v>0.142703274692678</v>
+        <v>0.008257136965434217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3507,16 +3510,16 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.6536625500340415</v>
+        <v>0.9845660624777853</v>
       </c>
       <c r="C15">
-        <v>0.1550777994016463</v>
+        <v>0.008119753762841764</v>
       </c>
       <c r="D15">
-        <v>0.02528703978472109</v>
+        <v>0.008591364609108363</v>
       </c>
       <c r="E15">
-        <v>0.1659726107795912</v>
+        <v>0.008722819150264521</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3524,16 +3527,16 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.6181952158948621</v>
+        <v>0.9838814161083982</v>
       </c>
       <c r="C16">
-        <v>0.1634486298617708</v>
+        <v>0.008424745082178834</v>
       </c>
       <c r="D16">
-        <v>0.02768058860902156</v>
+        <v>0.008500436697691377</v>
       </c>
       <c r="E16">
-        <v>0.1906755656343455</v>
+        <v>0.009193402111731636</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3541,16 +3544,16 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.5831076629647063</v>
+        <v>0.9831715773430835</v>
       </c>
       <c r="C17">
-        <v>0.1701547197909824</v>
+        <v>0.008740679877899114</v>
       </c>
       <c r="D17">
-        <v>0.03015224207937676</v>
+        <v>0.008418313124922938</v>
       </c>
       <c r="E17">
-        <v>0.2165853751649345</v>
+        <v>0.009669429654094478</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3558,16 +3561,16 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.5488986230678574</v>
+        <v>0.9824356826962127</v>
       </c>
       <c r="C18">
-        <v>0.1749984197964574</v>
+        <v>0.009067911258137809</v>
       </c>
       <c r="D18">
-        <v>0.03266478672093041</v>
+        <v>0.008344952784682691</v>
       </c>
       <c r="E18">
-        <v>0.2434381704147547</v>
+        <v>0.0101514532609668</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3575,16 +3578,16 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.515997944278708</v>
+        <v>0.9816728439618778</v>
       </c>
       <c r="C19">
-        <v>0.177876624781569</v>
+        <v>0.009406800652506158</v>
       </c>
       <c r="D19">
-        <v>0.03517913946906306</v>
+        <v>0.008280322825459817</v>
       </c>
       <c r="E19">
-        <v>0.2709462914706598</v>
+        <v>0.01064003256015626</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3592,16 +3595,16 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.4847487748529581</v>
+        <v>0.9808821478877144</v>
       </c>
       <c r="C20">
-        <v>0.1787822436065545</v>
+        <v>0.009757717757470707</v>
       </c>
       <c r="D20">
-        <v>0.03765629754362666</v>
+        <v>0.008224398569850381</v>
       </c>
       <c r="E20">
-        <v>0.2988126839968607</v>
+        <v>0.01113573578496448</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3609,16 +3612,16 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.455400099117923</v>
+        <v>0.9800626558777692</v>
       </c>
       <c r="C21">
-        <v>0.1777959217549894</v>
+        <v>0.01012104045578345</v>
       </c>
       <c r="D21">
-        <v>0.04005916010361803</v>
+        <v>0.008177163435104336</v>
       </c>
       <c r="E21">
-        <v>0.3267448190234695</v>
+        <v>0.01163914023134304</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3626,16 +3629,16 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.4281085787290426</v>
+        <v>0.9792134037278677</v>
       </c>
       <c r="C22">
-        <v>0.1750705235901465</v>
+        <v>0.01049715470774616</v>
       </c>
       <c r="D22">
-        <v>0.04235405638098286</v>
+        <v>0.0081386088541581</v>
       </c>
       <c r="E22">
-        <v>0.3544668412998279</v>
+        <v>0.01215083271022805</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3643,16 +3646,16 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.4029474469011021</v>
+        <v>0.97833340139716</v>
       </c>
       <c r="C23">
-        <v>0.1708115882407128</v>
+        <v>0.01088645441197989</v>
       </c>
       <c r="D23">
-        <v>0.04451187767014442</v>
+        <v>0.00810873419656058</v>
       </c>
       <c r="E23">
-        <v>0.3817290871880406</v>
+        <v>0.01267140999429962</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3660,16 +3663,16 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.3799197478701675</v>
+        <v>0.9774216328197386</v>
       </c>
       <c r="C24">
-        <v>0.1652568801203139</v>
+        <v>0.01128934123325805</v>
       </c>
       <c r="D24">
-        <v>0.04650877713663822</v>
+        <v>0.008087546688670913</v>
       </c>
       <c r="E24">
-        <v>0.4083145948728802</v>
+        <v>0.0132014792583325</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3677,16 +3680,16 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.358973383656457</v>
+        <v>0.9764770557604542</v>
       </c>
       <c r="C25">
-        <v>0.1586575043623235</v>
+        <v>0.01170622439484982</v>
       </c>
       <c r="D25">
-        <v>0.04832645817912883</v>
+        <v>0.008075061332475439</v>
       </c>
       <c r="E25">
-        <v>0.4340426538020905</v>
+        <v>0.01374165851222061</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3694,16 +3697,16 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.3400159782608734</v>
+        <v>0.97549860171928</v>
       </c>
       <c r="C26">
-        <v>0.1512621640301026</v>
+        <v>0.01213752043271049</v>
       </c>
       <c r="D26">
-        <v>0.04995211144995904</v>
+        <v>0.008071300822339263</v>
       </c>
       <c r="E26">
-        <v>0.4587697462590647</v>
+        <v>0.01429257702567028</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3711,16 +3714,16 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.3229282471530686</v>
+        <v>0.9744851758888119</v>
       </c>
       <c r="C27">
-        <v>0.1433052658402264</v>
+        <v>0.01258365290874797</v>
       </c>
       <c r="D27">
-        <v>0.05137808111940999</v>
+        <v>0.008076295458974442</v>
       </c>
       <c r="E27">
-        <v>0.4823884058872949</v>
+        <v>0.01485487574346579</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3728,16 +3731,16 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.3075751877860817</v>
+        <v>0.9734356571697209</v>
       </c>
       <c r="C28">
-        <v>0.1349988946509031</v>
+        <v>0.01304505208029107</v>
       </c>
       <c r="D28">
-        <v>0.05260134534624704</v>
+        <v>0.008090083059872482</v>
       </c>
       <c r="E28">
-        <v>0.504824572216768</v>
+        <v>0.01542920769011562</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3745,16 +3748,16 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.2938148920950686</v>
+        <v>0.972348898249211</v>
       </c>
       <c r="C29">
-        <v>0.1265282296935782</v>
+        <v>0.01352215452278695</v>
       </c>
       <c r="D29">
-        <v>0.05362288898586287</v>
+        <v>0.008112708865413366</v>
       </c>
       <c r="E29">
-        <v>0.5260339892254902</v>
+        <v>0.0160162383625888</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3762,16 +3765,16 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.2815051021178285</v>
+        <v>0.9712237257477606</v>
       </c>
       <c r="C30">
-        <v>0.1180497499141538</v>
+        <v>0.01401540270266351</v>
       </c>
       <c r="D30">
-        <v>0.05444703328943768</v>
+        <v>0.008144225439827209</v>
       </c>
       <c r="E30">
-        <v>0.5459981146785797</v>
+        <v>0.01661664610974875</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3779,16 +3782,16 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.2705078050677147</v>
+        <v>0.9700589404396577</v>
       </c>
       <c r="C31">
-        <v>0.1096915183686923</v>
+        <v>0.0145252444972089</v>
       </c>
       <c r="D31">
-        <v>0.05508077178113025</v>
+        <v>0.008184692566147711</v>
       </c>
       <c r="E31">
-        <v>0.5647199047824625</v>
+        <v>0.01723112249698584</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3796,16 +3799,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.2606922318494544</v>
+        <v>0.9688533175530524</v>
       </c>
       <c r="C32">
-        <v>0.1015548855468262</v>
+        <v>0.01505213265824716</v>
       </c>
       <c r="D32">
-        <v>0.05553314642048058</v>
+        <v>0.008234177134259278</v>
       </c>
       <c r="E32">
-        <v>0.5822197361832385</v>
+        <v>0.01786037265444136</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3813,16 +3816,16 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.2519366215501028</v>
+        <v>0.9676056071554665</v>
       </c>
       <c r="C33">
-        <v>0.0937170567183198</v>
+        <v>0.0155965242163279</v>
       </c>
       <c r="D33">
-        <v>0.05581468512804853</v>
+        <v>0.008292753021102153</v>
       </c>
       <c r="E33">
-        <v>0.5985316366035286</v>
+        <v>0.01850511560710365</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3830,16 +3833,16 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.2441290751982828</v>
+        <v>0.9663145346308946</v>
       </c>
       <c r="C34">
-        <v>0.08623409156611868</v>
+        <v>0.01615887982210035</v>
       </c>
       <c r="D34">
-        <v>0.05593691140803224</v>
+        <v>0.00836050096206235</v>
       </c>
       <c r="E34">
-        <v>0.6136999218275659</v>
+        <v>0.0191660845849429</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3847,16 +3850,16 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.2371677671132531</v>
+        <v>0.9649788012548175</v>
       </c>
       <c r="C35">
-        <v>0.0791440225201062</v>
+        <v>0.01673966302151186</v>
       </c>
       <c r="D35">
-        <v>0.05591192916770132</v>
+        <v>0.00843750841253604</v>
       </c>
       <c r="E35">
-        <v>0.627776281198939</v>
+        <v>0.01984402731113472</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3864,16 +3867,16 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.2309607251175018</v>
+        <v>0.9635970848736152</v>
       </c>
       <c r="C36">
-        <v>0.07246987966223188</v>
+        <v>0.0173393394614589</v>
       </c>
       <c r="D36">
-        <v>0.05575208059990245</v>
+        <v>0.008523869398621545</v>
       </c>
       <c r="E36">
-        <v>0.6408173146203635</v>
+        <v>0.0205397062663045</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3881,16 +3884,16 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.2254253390805045</v>
+        <v>0.9621680406950095</v>
       </c>
       <c r="C37">
-        <v>0.06622249078419037</v>
+        <v>0.01795837602252855</v>
       </c>
       <c r="D37">
-        <v>0.05546967171191273</v>
+        <v>0.008619684355856656</v>
       </c>
       <c r="E37">
-        <v>0.6528824984233921</v>
+        <v>0.02125389892660539</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3898,16 +3901,16 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.2204877137908649</v>
+        <v>0.9606903021962896</v>
       </c>
       <c r="C38">
-        <v>0.06040298558455542</v>
+        <v>0.01859723987550248</v>
       </c>
       <c r="D38">
-        <v>0.055076758284188</v>
+        <v>0.008725059954885005</v>
       </c>
       <c r="E38">
-        <v>0.6640325423403914</v>
+        <v>0.02198739797332299</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3915,16 +3918,16 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.2160819475984618</v>
+        <v>0.959162482157159</v>
       </c>
       <c r="C39">
-        <v>0.05500497575898462</v>
+        <v>0.01925639745835723</v>
       </c>
       <c r="D39">
-        <v>0.05458498430628179</v>
+        <v>0.008840108912903263</v>
       </c>
       <c r="E39">
-        <v>0.6743280923362716</v>
+        <v>0.0227410114715805</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3932,16 +3935,16 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.212149391895417</v>
+        <v>0.9575831738241025</v>
       </c>
       <c r="C40">
-        <v>0.05001641130701576</v>
+        <v>0.01993631337058649</v>
       </c>
       <c r="D40">
-        <v>0.05400546491902248</v>
+        <v>0.008964949789711303</v>
       </c>
       <c r="E40">
-        <v>0.6838287318785445</v>
+        <v>0.02351556301559968</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3949,16 +3952,16 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.2086379270341258</v>
+        <v>0.9559509522131857</v>
       </c>
       <c r="C41">
-        <v>0.04542113115297557</v>
+        <v>0.02063744918179681</v>
       </c>
       <c r="D41">
-        <v>0.05334870632512942</v>
+        <v>0.009099706767160983</v>
       </c>
       <c r="E41">
-        <v>0.6925922354877689</v>
+        <v>0.02431189183785653</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3966,16 +3969,16 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.2055012763201621</v>
+        <v>0.9542643755581752</v>
       </c>
       <c r="C42">
-        <v>0.04120013612429477</v>
+        <v>0.02136026215169138</v>
       </c>
       <c r="D42">
-        <v>0.05262455581901946</v>
+        <v>0.009244509410776239</v>
       </c>
       <c r="E42">
-        <v>0.7006740317365234</v>
+        <v>0.02513085287935719</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3983,16 +3986,16 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.2026983699850649</v>
+        <v>0.9525219869107912</v>
       </c>
       <c r="C43">
-        <v>0.03733261684913241</v>
+        <v>0.02210520385875985</v>
       </c>
       <c r="D43">
-        <v>0.05184217589353388</v>
+        <v>0.009399492412298574</v>
       </c>
       <c r="E43">
-        <v>0.7081268372722687</v>
+        <v>0.02597331681815041</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4000,16 +4003,16 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.2001927644561321</v>
+        <v>0.950722315899773</v>
       </c>
       <c r="C44">
-        <v>0.03379677006797036</v>
+        <v>0.02287271873523999</v>
       </c>
       <c r="D44">
-        <v>0.05101003721536921</v>
+        <v>0.009564795311898381</v>
       </c>
       <c r="E44">
-        <v>0.7150004282605281</v>
+        <v>0.02684017005308864</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4017,16 +4020,16 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.1979521179323923</v>
+        <v>0.9488638806552501</v>
       </c>
       <c r="C45">
-        <v>0.0305704355540467</v>
+        <v>0.02366324250621226</v>
       </c>
       <c r="D45">
-        <v>0.05013592606479744</v>
+        <v>0.009740562198784613</v>
       </c>
       <c r="E45">
-        <v>0.7213415204487633</v>
+        <v>0.02773231463975301</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4034,16 +4037,16 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.1959477205829716</v>
+        <v>0.9469451899046529</v>
       </c>
       <c r="C46">
-        <v>0.02763158326323405</v>
+        <v>0.02447720053103507</v>
       </c>
       <c r="D46">
-        <v>0.04922696257577562</v>
+        <v>0.009926941388944031</v>
       </c>
       <c r="E46">
-        <v>0.7271937335780185</v>
+        <v>0.02865066817536797</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4051,16 +4054,16 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.1941540761096836</v>
+        <v>0.9449647452460711</v>
       </c>
       <c r="C47">
-        <v>0.02495867713904831</v>
+        <v>0.0253150060457294</v>
       </c>
       <c r="D47">
-        <v>0.04828962677343554</v>
+        <v>0.01012408507874727</v>
       </c>
       <c r="E47">
-        <v>0.7325976199778323</v>
+        <v>0.02959616362945225</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4068,16 +4071,16 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.1925485305977619</v>
+        <v>0.9429210436045607</v>
       </c>
       <c r="C48">
-        <v>0.02253093861135474</v>
+        <v>0.02617705830538108</v>
       </c>
       <c r="D48">
-        <v>0.04732978998189256</v>
+        <v>0.01033214897317336</v>
       </c>
       <c r="E48">
-        <v>0.7375907408089907</v>
+        <v>0.03056974911688483</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4085,16 +4088,16 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.1911109442584184</v>
+        <v>0.9408125798764136</v>
       </c>
       <c r="C49">
-        <v>0.02032852951490802</v>
+        <v>0.02706374062614849</v>
       </c>
       <c r="D49">
-        <v>0.0463527496679055</v>
+        <v>0.0105512918874279</v>
       </c>
       <c r="E49">
-        <v>0.7422077765587679</v>
+        <v>0.03157238761000997</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4102,16 +4105,16 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.1898234016627388</v>
+        <v>0.9386378497658221</v>
       </c>
       <c r="C50">
-        <v>0.01833267107059592</v>
+        <v>0.02797541832704817</v>
       </c>
       <c r="D50">
-        <v>0.04536326620077415</v>
+        <v>0.01078167532076385</v>
       </c>
       <c r="E50">
-        <v>0.7464806610658911</v>
+        <v>0.03260505658636587</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4119,16 +4122,16 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.1886699562531835</v>
+        <v>0.9363953528177019</v>
       </c>
       <c r="C51">
-        <v>0.01652571279676759</v>
+        <v>0.02891243657234039</v>
       </c>
       <c r="D51">
-        <v>0.04436560035366854</v>
+        <v>0.01102346300135877</v>
       </c>
       <c r="E51">
-        <v>0.7504387305963802</v>
+        <v>0.03366874760859895</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4136,16 +4139,16 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.1876364052121319</v>
+        <v>0.9340835956496614</v>
       </c>
       <c r="C52">
-        <v>0.0148911627794926</v>
+        <v>0.02987511811605594</v>
       </c>
       <c r="D52">
-        <v>0.04336355065483306</v>
+        <v>0.01127682040115957</v>
       </c>
       <c r="E52">
-        <v>0.7541088813535423</v>
+        <v>0.03476446583312313</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4153,16 +4156,16 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.1867100911106468</v>
+        <v>0.9317010953852298</v>
       </c>
       <c r="C53">
-        <v>0.01341368862735993</v>
+        <v>0.03086376095099311</v>
       </c>
       <c r="D53">
-        <v>0.04236048992727906</v>
+        <v>0.01154191421967587</v>
       </c>
       <c r="E53">
-        <v>0.7575157303347141</v>
+        <v>0.0358932294441012</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4170,16 +4173,16 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.1858797271191548</v>
+        <v>0.9292463832894716</v>
       </c>
       <c r="C54">
-        <v>0.01207909664878477</v>
+        <v>0.03187863586537308</v>
       </c>
       <c r="D54">
-        <v>0.04135940054067389</v>
+        <v>0.01181891183578753</v>
       </c>
       <c r="E54">
-        <v>0.7606817756913864</v>
+        <v>0.03705606900936782</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4187,16 +4190,16 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.1851352429129379</v>
+        <v>0.9267180086070163</v>
       </c>
       <c r="C55">
-        <v>0.01087429528856596</v>
+        <v>0.03291998391127089</v>
       </c>
       <c r="D55">
-        <v>0.04036290804642445</v>
+        <v>0.0121079807267316</v>
       </c>
       <c r="E55">
-        <v>0.7636275537520715</v>
+        <v>0.0382540267549813</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4204,16 +4207,16 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.1844676487364121</v>
+        <v>0.9241145426013252</v>
       </c>
       <c r="C56">
-        <v>0.009787247612532902</v>
+        <v>0.03398801378993824</v>
       </c>
       <c r="D56">
-        <v>0.03937331298287474</v>
+        <v>0.01240928785354918</v>
       </c>
       <c r="E56">
-        <v>0.7663717906681801</v>
+        <v>0.03948815575518742</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4221,16 +4224,16 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.1838689153944548</v>
+        <v>0.9214345827926882</v>
       </c>
       <c r="C57">
-        <v>0.008806916601004907</v>
+        <v>0.0350828991602011</v>
       </c>
       <c r="D57">
-        <v>0.03839262072767557</v>
+        <v>0.0127229990124055</v>
       </c>
       <c r="E57">
-        <v>0.7689315472768644</v>
+        <v>0.04075951903470525</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4238,16 +4241,16 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.1833318682138351</v>
+        <v>0.9186767573910035</v>
       </c>
       <c r="C58">
-        <v>0.00792320617154302</v>
+        <v>0.03620477587724605</v>
       </c>
       <c r="D58">
-        <v>0.03742256934351239</v>
+        <v>0.01304927815134659</v>
       </c>
       <c r="E58">
-        <v>0.7713223562711092</v>
+        <v>0.04206918858040393</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4255,16 +4258,16 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.1828500932628677</v>
+        <v>0.9158397299178399</v>
       </c>
       <c r="C59">
-        <v>0.007126900169912551</v>
+        <v>0.0373537391703017</v>
       </c>
       <c r="D59">
-        <v>0.03646465541552302</v>
+        <v>0.01338828665222484</v>
       </c>
       <c r="E59">
-        <v>0.7735583511516965</v>
+        <v>0.04341824425963366</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4272,16 +4275,16 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.1824178543340234</v>
+        <v>0.9129222040106139</v>
       </c>
       <c r="C60">
-        <v>0.006409601019318046</v>
+        <v>0.0385298407689677</v>
       </c>
       <c r="D60">
-        <v>0.03552015791726734</v>
+        <v>0.01374018257771315</v>
       </c>
       <c r="E60">
-        <v>0.775652386729391</v>
+        <v>0.04480777264270538</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4289,16 +4292,16 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.182030019384433</v>
+        <v>0.9099229283999436</v>
       </c>
       <c r="C61">
-        <v>0.00576366927916719</v>
+        <v>0.03973308598923836</v>
       </c>
       <c r="D61">
-        <v>0.03459016016981173</v>
+        <v>0.01410511988353516</v>
       </c>
       <c r="E61">
-        <v>0.7776161511665878</v>
+        <v>0.04623886572728299</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4306,16 +4309,16 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.1816819952954797</v>
+        <v>0.9068407020493698</v>
       </c>
       <c r="C62">
-        <v>0.005182165016410145</v>
+        <v>0.04096343079160143</v>
       </c>
       <c r="D62">
-        <v>0.03367556997765457</v>
+        <v>0.01448324759626561</v>
       </c>
       <c r="E62">
-        <v>0.7794602697104552</v>
+        <v>0.04771261956276326</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4323,16 +4326,16 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.181369669957527</v>
+        <v>0.903674379444673</v>
       </c>
       <c r="C63">
-        <v>0.004658791618378322</v>
+        <v>0.04222077882495483</v>
       </c>
       <c r="D63">
-        <v>0.03277713803771317</v>
+        <v>0.014874708957302</v>
       </c>
       <c r="E63">
-        <v>0.7811944003863811</v>
+        <v>0.04923013277307029</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4340,16 +4343,16 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.1810893608117635</v>
+        <v>0.9004228760179738</v>
       </c>
       <c r="C64">
-        <v>0.004187842462142574</v>
+        <v>0.04350497847146305</v>
       </c>
       <c r="D64">
-        <v>0.03189547472493406</v>
+        <v>0.01527964053387551</v>
       </c>
       <c r="E64">
-        <v>0.7828273220011595</v>
+        <v>0.05079250497668775</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4357,16 +4360,16 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.1808377690905004</v>
+        <v>0.8970851736896968</v>
       </c>
       <c r="C65">
-        <v>0.003764150690168381</v>
+        <v>0.04481581990885696</v>
       </c>
       <c r="D65">
-        <v>0.03103106536149692</v>
+        <v>0.01569817129825478</v>
       </c>
       <c r="E65">
-        <v>0.7843670148578338</v>
+        <v>0.05240083510319159</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4374,16 +4377,16 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.1806119390921563</v>
+        <v>0.8936603265093177</v>
       </c>
       <c r="C66">
-        <v>0.003383042215902335</v>
+        <v>0.04615303220805069</v>
       </c>
       <c r="D66">
-        <v>0.03018428407703609</v>
+        <v>0.01613042167660112</v>
       </c>
       <c r="E66">
-        <v>0.7858207346149049</v>
+        <v>0.05405621960603055</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4391,16 +4394,16 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.1804092219095133</v>
+        <v>0.8901474663736251</v>
       </c>
       <c r="C67">
-        <v>0.003040291988015726</v>
+        <v>0.04751628048528857</v>
       </c>
       <c r="D67">
-        <v>0.02935540636557952</v>
+        <v>0.01657650256925602</v>
       </c>
       <c r="E67">
-        <v>0.7871950797368911</v>
+        <v>0.0557597505718304</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4408,16 +4411,16 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.1802272431013272</v>
+        <v>0.8865458087990217</v>
       </c>
       <c r="C68">
-        <v>0.002732083471925665</v>
+        <v>0.04890516312932683</v>
       </c>
       <c r="D68">
-        <v>0.02854462044161634</v>
+        <v>0.01703651434458045</v>
       </c>
       <c r="E68">
-        <v>0.7884960529851304</v>
+        <v>0.05751251372707111</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4425,16 +4428,16 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.1800638738594805</v>
+        <v>0.8828546587222019</v>
       </c>
       <c r="C69">
-        <v>0.002454971256677837</v>
+        <v>0.05031920912537674</v>
       </c>
       <c r="D69">
-        <v>0.02775203749333387</v>
+        <v>0.01751054580881948</v>
       </c>
       <c r="E69">
-        <v>0.7897291173905073</v>
+        <v>0.05931558634360189</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4442,16 +4445,16 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.179917205277887</v>
+        <v>0.8790734163013854</v>
       </c>
       <c r="C70">
-        <v>0.002205846660069053</v>
+        <v>0.05175787549866705</v>
       </c>
       <c r="D70">
-        <v>0.02697770092598528</v>
+        <v>0.01799867315483143</v>
       </c>
       <c r="E70">
-        <v>0.7908992471360583</v>
+        <v>0.06117003504511619</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4459,16 +4462,16 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.1797855253763856</v>
+        <v>0.8752015826881957</v>
       </c>
       <c r="C71">
-        <v>0.001981906181595057</v>
+        <v>0.05322054490150067</v>
       </c>
       <c r="D71">
-        <v>0.02622159468284919</v>
+        <v>0.01850095889289826</v>
       </c>
       <c r="E71">
-        <v>0.7920109737591697</v>
+        <v>0.06307691351740535</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4476,16 +4479,16 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.1796672985738699</v>
+        <v>0.8712387657382812</v>
       </c>
       <c r="C72">
-        <v>0.001780622638687635</v>
+        <v>0.05470652336855969</v>
       </c>
       <c r="D72">
-        <v>0.02548365072554123</v>
+        <v>0.01901745076721752</v>
       </c>
       <c r="E72">
-        <v>0.7930684280619008</v>
+        <v>0.06503726012594163</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4493,16 +4496,16 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.1795611473406991</v>
+        <v>0.8671846856269003</v>
       </c>
       <c r="C73">
-        <v>0.00159971881456485</v>
+        <v>0.05621503826592845</v>
       </c>
       <c r="D73">
-        <v>0.02476375574969858</v>
+        <v>0.01954818066206531</v>
       </c>
       <c r="E73">
-        <v>0.794075378095037</v>
+        <v>0.06705209544510593</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4510,16 +4513,16 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.1794658357917511</v>
+        <v>0.8630391803339896</v>
       </c>
       <c r="C74">
-        <v>0.001437143444118684</v>
+        <v>0.05774523645983302</v>
       </c>
       <c r="D74">
-        <v>0.02406175720640291</v>
+        <v>0.020093163502009</v>
       </c>
       <c r="E74">
-        <v>0.7950352635577268</v>
+        <v>0.06912241970416835</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4527,16 +4530,16 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.1793802550088975</v>
+        <v>0.8588022109617107</v>
       </c>
       <c r="C75">
-        <v>0.001291049366229358</v>
+        <v>0.05929618273141007</v>
       </c>
       <c r="D75">
-        <v>0.02337746869422197</v>
+        <v>0.02065239615093485</v>
       </c>
       <c r="E75">
-        <v>0.7959512269306506</v>
+        <v>0.07124921015594438</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4544,16 +4547,16 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.1793034099057368</v>
+        <v>0.8544738668461874</v>
       </c>
       <c r="C76">
-        <v>0.001159773675643616</v>
+        <v>0.06086685846389672</v>
       </c>
       <c r="D76">
-        <v>0.02271067478149402</v>
+        <v>0.0212258563150344</v>
       </c>
       <c r="E76">
-        <v>0.7968261416371251</v>
+        <v>0.07343341837488145</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4561,16 +4564,16 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.1792344074685553</v>
+        <v>0.8500543704241178</v>
       </c>
       <c r="C77">
-        <v>0.001041819714240718</v>
+        <v>0.06245616062844972</v>
       </c>
       <c r="D77">
-        <v>0.02206113531349349</v>
+        <v>0.02181350145526021</v>
       </c>
       <c r="E77">
-        <v>0.7976626375037099</v>
+        <v>0.07567596749217227</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4578,16 +4581,16 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.1791724462260849</v>
+        <v>0.8455440818142156</v>
       </c>
       <c r="C78">
-        <v>0.0009358407494803626</v>
+        <v>0.0640629010943384</v>
       </c>
       <c r="D78">
-        <v>0.02142858925442245</v>
+        <v>0.02241526771511083</v>
       </c>
       <c r="E78">
-        <v>0.7984631237700117</v>
+        <v>0.07797774937633521</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4595,16 +4598,16 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.1791168068170088</v>
+        <v>0.8409435030730392</v>
       </c>
       <c r="C79">
-        <v>0.0008406251965786655</v>
+        <v>0.06568580628848868</v>
       </c>
       <c r="D79">
-        <v>0.0208127581097833</v>
+        <v>0.02303106886993181</v>
       </c>
       <c r="E79">
-        <v>0.7992298098766286</v>
+        <v>0.08033962176854033</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4612,16 +4615,16 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.179066843538633</v>
+        <v>0.8362532820847264</v>
       </c>
       <c r="C80">
-        <v>0.0007550832501097968</v>
+        <v>0.06732351722827123</v>
       </c>
       <c r="D80">
-        <v>0.02021334897060546</v>
+        <v>0.02366079530421894</v>
       </c>
       <c r="E80">
-        <v>0.7999647242406511</v>
+        <v>0.08276240538278352</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4629,16 +4632,16 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.1790219767729165</v>
+        <v>0.8314742160445034</v>
       </c>
       <c r="C81">
-        <v>0.0006782347999958492</v>
+        <v>0.0689745899500107</v>
       </c>
       <c r="D81">
-        <v>0.01963005721721865</v>
+        <v>0.02430431302367503</v>
       </c>
       <c r="E81">
-        <v>0.8006697312098684</v>
+        <v>0.08524688098181094</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4646,16 +4649,16 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.1789816861973618</v>
+        <v>0.8266072544966043</v>
       </c>
       <c r="C82">
-        <v>0.0006091985160151951</v>
+        <v>0.07063749635393514</v>
       </c>
       <c r="D82">
-        <v>0.01906256891677892</v>
+        <v>0.02496146270899852</v>
       </c>
       <c r="E82">
-        <v>0.8013465463698435</v>
+        <v>0.0877937864404621</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4663,16 +4666,16 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.1789455046982831</v>
+        <v>0.8216535018884311</v>
       </c>
       <c r="C83">
-        <v>0.0005471819938784271</v>
+        <v>0.07231062548418292</v>
       </c>
       <c r="D83">
-        <v>0.01851056294554838</v>
+        <v>0.02563205881856356</v>
       </c>
       <c r="E83">
-        <v>0.8019967503622895</v>
+        <v>0.09040381380882254</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4680,16 +4683,16 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.1789130129128546</v>
+        <v>0.8166142196044367</v>
       </c>
       <c r="C84">
-        <v>0.0004914728644853825</v>
+        <v>0.07399228526003561</v>
       </c>
       <c r="D84">
-        <v>0.01797371286399154</v>
+        <v>0.02631588874728302</v>
       </c>
       <c r="E84">
-        <v>0.8026218013586678</v>
+        <v>0.09307760638824479</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4697,16 +4700,16 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.1788838343342258</v>
+        <v>0.81149082744532</v>
       </c>
       <c r="C85">
-        <v>0.0004414307761168211</v>
+        <v>0.07568070467175832</v>
       </c>
       <c r="D85">
-        <v>0.01745168857006479</v>
+        <v>0.02701271204902173</v>
       </c>
       <c r="E85">
-        <v>0.803223046319592</v>
+        <v>0.09581575583390005</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4714,16 +4717,16 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.1788576309210042</v>
+        <v>0.806284904520692</v>
       </c>
       <c r="C86">
-        <v>0.0003964801669874198</v>
+        <v>0.07737403645131392</v>
       </c>
       <c r="D86">
-        <v>0.01694415775362388</v>
+        <v>0.02772225972994303</v>
       </c>
       <c r="E86">
-        <v>0.8038017311583839</v>
+        <v>0.09861879929805113</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4731,16 +4734,16 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.1788340991586381</v>
+        <v>0.8009981895264046</v>
       </c>
       <c r="C87">
-        <v>0.0003561037527709552</v>
+        <v>0.07907036022479294</v>
       </c>
       <c r="D87">
-        <v>0.01645078717264208</v>
+        <v>0.02844423362012208</v>
       </c>
       <c r="E87">
-        <v>0.8043590099159482</v>
+        <v>0.1014872166286805</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4748,16 +4751,16 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.1788129665257871</v>
+        <v>0.7956325803812121</v>
       </c>
       <c r="C88">
-        <v>0.0003198366603974668</v>
+        <v>0.08076768614969114</v>
       </c>
       <c r="D88">
-        <v>0.01597124376990156</v>
+        <v>0.0291783058306416</v>
       </c>
       <c r="E88">
-        <v>0.8048959530439133</v>
+        <v>0.1044214276384552</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4765,16 +4768,16 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.1787939883237097</v>
+        <v>0.7901901332013473</v>
       </c>
       <c r="C89">
-        <v>0.0002872611456208117</v>
+        <v>0.08246395903620295</v>
       </c>
       <c r="D89">
-        <v>0.01550519564697749</v>
+        <v>0.02992411830319481</v>
       </c>
       <c r="E89">
-        <v>0.8054135548836914</v>
+        <v>0.1074217894592549</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4782,16 +4785,16 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.178776944831115</v>
+        <v>0.7846730605959064</v>
       </c>
       <c r="C90">
-        <v>0.000258001837576537</v>
+        <v>0.08415706294751749</v>
       </c>
       <c r="D90">
-        <v>0.01505231291066355</v>
+        <v>0.03068128245895568</v>
       </c>
       <c r="E90">
-        <v>0.8059127404206443</v>
+        <v>0.1104885939976205</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4799,16 +4802,16 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.1787616387508543</v>
+        <v>0.7790837292706236</v>
       </c>
       <c r="C91">
-        <v>0.0002317214588132997</v>
+        <v>0.0858448262697486</v>
       </c>
       <c r="D91">
-        <v>0.01461226840547348</v>
+        <v>0.03144937895313493</v>
       </c>
       <c r="E91">
-        <v>0.8063943713848584</v>
+        <v>0.1136220655064929</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4816,16 +4819,16 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.1787478929183464</v>
+        <v>0.7734246569326302</v>
       </c>
       <c r="C92">
-        <v>0.0002081169741088202</v>
+        <v>0.08752502723765017</v>
       </c>
       <c r="D92">
-        <v>0.01418473834448411</v>
+        <v>0.03222795754122174</v>
       </c>
       <c r="E92">
-        <v>0.8068592517630601</v>
+        <v>0.116822358288498</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4833,16 +4836,16 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.1787355482447687</v>
+        <v>0.7676985084940793</v>
       </c>
       <c r="C93">
-        <v>0.0001869161257985547</v>
+        <v>0.08919539989771623</v>
       </c>
       <c r="D93">
-        <v>0.01376940284954736</v>
+        <v>0.03301653706241608</v>
       </c>
       <c r="E93">
-        <v>0.8073081327798848</v>
+        <v>0.1200895545457885</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4850,16 +4853,16 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.1787244618708489</v>
+        <v>0.761908091578039</v>
       </c>
       <c r="C94">
-        <v>0.0001678743173780511</v>
+        <v>0.0908536404857007</v>
       </c>
       <c r="D94">
-        <v>0.01336594641077999</v>
+        <v>0.0338146055451861</v>
       </c>
       <c r="E94">
-        <v>0.8077417174009924</v>
+        <v>0.1234236623910743</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4867,16 +4870,16 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.1787145055096048</v>
+        <v>0.7560563513357239</v>
       </c>
       <c r="C95">
-        <v>0.000150771810814833</v>
+        <v>0.09249741419107582</v>
       </c>
       <c r="D95">
-        <v>0.01297405827423108</v>
+        <v>0.03462162043924154</v>
       </c>
       <c r="E95">
-        <v>0.8081606644053487</v>
+        <v>0.1268246140339588</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4884,16 +4887,16 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.1787055639586197</v>
+        <v>0.7501463645899049</v>
       </c>
       <c r="C96">
-        <v>0.0001354112063488796</v>
+        <v>0.09412436227654516</v>
       </c>
       <c r="D96">
-        <v>0.01259343276571655</v>
+        <v>0.03543700897750264</v>
       </c>
       <c r="E96">
-        <v>0.8085655920693143</v>
+        <v>0.1302922641560474</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4901,16 +4904,16 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.1786975337644521</v>
+        <v>0.7441813333251224</v>
       </c>
       <c r="C97">
-        <v>0.0001216151765978651</v>
+        <v>0.09573210951650182</v>
       </c>
       <c r="D97">
-        <v>0.01222376955798925</v>
+        <v>0.03626016867086708</v>
       </c>
       <c r="E97">
-        <v>0.8089570815009602</v>
+        <v>0.1338263884875089</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4918,16 +4921,16 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.1786903220235738</v>
+        <v>0.7381645775510596</v>
       </c>
       <c r="C98">
-        <v>0.0001092244295388281</v>
+        <v>0.09731827191434105</v>
       </c>
       <c r="D98">
-        <v>0.01186477388767384</v>
+        <v>0.03709046793774409</v>
       </c>
       <c r="E98">
-        <v>0.809335679659213</v>
+        <v>0.1374266825968555</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4935,16 +4938,16 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.178683845305842</v>
+        <v>0.7320995275710328</v>
       </c>
       <c r="C99">
-        <v>9.809587743515771E-05</v>
+        <v>0.09888046465486232</v>
       </c>
       <c r="D99">
-        <v>0.01151615672772979</v>
+        <v>0.03792724686943915</v>
       </c>
       <c r="E99">
-        <v>0.8097019020889925</v>
+        <v>0.141092760904666</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4952,16 +4955,16 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.1786780286879526</v>
+        <v>0.7259897156929457</v>
       </c>
       <c r="C100">
-        <v>8.810099103869818E-05</v>
+        <v>0.1004163102446907</v>
       </c>
       <c r="D100">
-        <v>0.01117763492060629</v>
+        <v>0.03876981813154558</v>
       </c>
       <c r="E100">
-        <v>0.8100562354004019</v>
+        <v>0.1448241559308183</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4969,16 +4972,16 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.1786728048856122</v>
+        <v>0.7198387674251632</v>
       </c>
       <c r="C101">
-        <v>7.912432044194663E-05</v>
+        <v>0.1019234467907692</v>
       </c>
       <c r="D101">
-        <v>0.01084893127671379</v>
+        <v>0.03961746800053749</v>
       </c>
       <c r="E101">
-        <v>0.8103991395172316</v>
+        <v>0.1486203177835304</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4986,16 +4989,16 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.1786681134743275</v>
+        <v>0.7136503922045084</v>
       </c>
       <c r="C102">
-        <v>7.106216580391089E-05</v>
+        <v>0.103399536364573</v>
       </c>
       <c r="D102">
-        <v>0.01052977464235166</v>
+        <v>0.04046945753377418</v>
       </c>
       <c r="E102">
-        <v>0.8107310497175164</v>
+        <v>0.1524806138971447</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5003,16 +5006,16 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.1786639001897459</v>
+        <v>0.707428373707911</v>
       </c>
       <c r="C103">
-        <v>6.382138284295323E-05</v>
+        <v>0.104842273397823</v>
       </c>
       <c r="D103">
-        <v>0.01021989994079543</v>
+        <v>0.04132502387012771</v>
       </c>
       <c r="E103">
-        <v>0.8110523784866152</v>
+        <v>0.1564043290241386</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5020,16 +5023,16 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.178660116299412</v>
+        <v>0.7011765598030659</v>
       </c>
       <c r="C104">
-        <v>5.731830949724707E-05</v>
+        <v>0.1062493930541615</v>
       </c>
       <c r="D104">
-        <v>0.009919048189855333</v>
+        <v>0.04218338165744552</v>
       </c>
       <c r="E104">
-        <v>0.8113635172012349</v>
+        <v>0.1603906654853274</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5037,16 +5040,16 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.1786567180386407</v>
+        <v>0.6948988521967534</v>
       </c>
       <c r="C105">
-        <v>5.147780151338882E-05</v>
+        <v>0.1076186795205354</v>
       </c>
       <c r="D105">
-        <v>0.009626966498865342</v>
+        <v>0.04304372460206991</v>
       </c>
       <c r="E105">
-        <v>0.8116648376609801</v>
+        <v>0.1644387436806417</v>
       </c>
     </row>
   </sheetData>
